--- a/Portfolio/scripts/output/indexYearDataCompare/indexCompareOfYear/indexYearDataCompare.xlsx
+++ b/Portfolio/scripts/output/indexYearDataCompare/indexCompareOfYear/indexYearDataCompare.xlsx
@@ -60,7 +60,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="227">
+  <fills count="283">
     <fill>
       <patternFill/>
     </fill>
@@ -69,1127 +69,1407 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FBF2F4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0063BE7B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DDEFE4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F8FAFC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E6F3EC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F8696B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EBF5F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F3F8F7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FABFC1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FAB5B7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FAC6C9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F9A0A2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007EC992"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EAF4EF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBDFE2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBDDE0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBE6E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F9A9AB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBE4E7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBF1F4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F9989B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBF8FB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FAC0C3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBE2E5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBEAED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBE9EC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBF3F5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F9B0B3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DAEEE1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C9E7D3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A8DAB7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBEFF2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EBF5F1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F4F8F8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F9A7AA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBF9FC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBDEE1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F9B1B3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F88183"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F87E80"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBD7DA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F86A6C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F88386"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FAC9CB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F99496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F88A8C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F9A3A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F86C6E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009DD5AD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FAC1C3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0096D2A7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F9B1B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F9A1A4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FAB8BA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FABBBE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F99EA1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DCEFE4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0095D2A6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CFE9D8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FAC5C8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F8888A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FABFC2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F9989A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F99C9E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FACED1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FACACC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FAC7C9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FABCBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBDADD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F88C8E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBE2E4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D5ECDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009FD6AF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E2F1E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9EDE1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F6F9FA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0071C387"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9EEE1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006DC283"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006FC285"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0088CD9B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0079C78E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D2EBDB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0080C994"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AFDDBD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BDE2C8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B5DFC2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B8E0C4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A6D9B5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0086CC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C1E4CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008CCE9E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AADAB8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F99395"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F99B9D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FAB6B8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F88D8F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FAD2D5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FACACD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F9AFB2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F9ACAE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBF3F6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBEBED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBDCDF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBDBDE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBEEF1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBD8DB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FAD5D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CBE8D5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B4DFC1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C3E5CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0073C489"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0082CA95"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBEBEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBE6E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F99C9F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F9AAAC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F5F9F9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F86E70"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F87C7E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F87577"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F9AAAD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F88588"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F9A2A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F99699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FAD3D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBE3E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBF5F8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBE7EA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBE8EB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBECEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBFBFE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F99FA1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F88B8D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F86D70"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F98F91"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F87779"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F86B6D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBE0E2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBF6F9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBECEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBF7FA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0065BF7D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0064BE7C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006CC183"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006EC284"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0074C58A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A5D8B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007DC892"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008ECFA0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0092D1A4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A0D6AF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009BD4AB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AFDCBC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A4D8B3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F9A4A7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F99799"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F88587"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F87274"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F8898B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FAC4C7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F9ADAF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FACCCF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F9A4A6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006CC182"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AADBB9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0098D3A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B6DFC3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F98E90"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A5D9B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FAD5D8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FABABD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E5F2EB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F88B8E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E4F2EA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F99396"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AEDCBC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0083CB96"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006FC386"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0067BF7F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0081CA95"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0099D4AA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A2D7B1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B0DDBE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BCE2C8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B3DEC0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F1F7F5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FCFCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0083CB97"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FAB4B7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBD9DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FABDBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBF4F7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D5ECDE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D4EBDC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C5E5CF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBDCDE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FAD2D4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F99092"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D3EBDB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FACFD1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F9AEB1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FAB6B9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBDADC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FAD1D4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D7EDDF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C4E5CF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D3EBDC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DBEEE3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBDFE1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CCE8D5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FABEC0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBFAFD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F99B9E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FAD0D3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0084CB97"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F88C8F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F99DA0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FAB7BA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBE5E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBEDF0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2F8F7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F9FAFC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F6F9F9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BAE1C6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D8EDE0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F9A6A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F88385"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CBE8D4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBF2F5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F8FAFB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0077C68C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C8E7D2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BEE3CA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C6E6D1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EDF6F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008FCFA1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A7D9B6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0079C68E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B9E0C5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FACBCD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FACED0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F9A2A4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FAC1C4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0066BF7D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FABDC0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2F8F6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0091D0A3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FAC8CB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F87B7D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FACDD0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBE0E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F9A5A7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F99A9D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FAB8BB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FAFBFD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ADDCBB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BDE2C9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B0DDBD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0097D3A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006BC182"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008ACE9D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008CCE9F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0094D2A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0094D2A6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C5E5D0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C8E6D2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B5DFC1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D0EAD9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EAF5F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F9AFB1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FAC7CA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F99597"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F9ABAD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FACFD2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F9A1A3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FAB2B5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0089CD9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AFDDBD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FCFCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D5ECDE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F8696B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C9E7D3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FAC1C3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F9A3A6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FBDEE1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F88688"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0096D2A7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F9A8AA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F99395"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FAD2D4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F87E80"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FABDBF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FBE7E9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F8797B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FBEBEE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F8898B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F9AAAC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F9999C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FACACD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FABABD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FBDBDE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007CC890"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F98D90"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C8E7D2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AFDCBC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0095D2A6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FBD7DA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E2F1E8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F9A0A2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FBE9EC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F87B7D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FAC4C7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FBE3E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F88183"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FACBCD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F99A9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FBEDF0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F99597"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FACFD2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F87779"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A7D9B5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0074C489"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DAEEE1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B8E0C4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EBF5F0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0085CB98"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E8F4EE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C2E4CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0076C58B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009CD5AC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F87173"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F9A2A4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F99194"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FAC2C5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FAD3D5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FBF3F6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F9A5A7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F99496"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F87A7C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F88285"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F99C9F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F88B8D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FAB6B9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FAD0D3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FABFC2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FBE2E4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FBD9DC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FAC8CA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FBEAED"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F9AEB0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006AC181"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0079C78E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0072C488"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0081CA95"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A7D9B6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0090D0A2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0098D3A9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ECF5F1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A0D6AF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B7E0C3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BEE3CA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CEE9D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DDEFE4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C6E6D0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F4F8F8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E5F2EB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F99C9E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F87F81"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F87072"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00FAB9BC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FBF4F7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FBE5E8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FAC8CB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F9ABAD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FAC3C6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F87476"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F99698"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FBF0F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FACED1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FBDADC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FAB8BA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F88A8D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F9ACAF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F9A1A3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C0E3CB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009ED6AE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CDE9D6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0098D3A8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008ACE9D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0069C080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0076C68C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007DC891"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0070C386"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A5D8B4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0084CB97"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ACDBBA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E8F3ED"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C6E6D1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B9E1C5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B2DEBF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D4EBDC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E1F1E8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EEF6F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DAEEE2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F5F9F9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0091D0A3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F88A8C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F99EA0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FBEEF1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FBF5F8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FACDD0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FBE8EA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FBE1E4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F87678"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F87D7F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F86F71"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FAD4D6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F88385"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FAB9BB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F99193"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F9979A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FBDADD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FAC6C9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F9ABAE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F87577"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F88789"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FAD1D3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FABEC1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F99396"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F9ACAE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F9A6A8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FBDDE0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FBEFF2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FAB8BB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006FC386"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E2F1E9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BCE2C8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EFF6F4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A2D7B2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007CC891"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D9EEE1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EAF5F0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F3F8F7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008DCF9F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0073C489"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D1EADA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0084CB98"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A6D9B5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006BC182"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B7E0C4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E6F3EC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008ECFA0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BAE1C6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D0EAD9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0078C68D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A4D8B3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B1DDBF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C5E5D0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009ED5AD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BBE1C7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0099D3A9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008ACD9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006CC183"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007BC790"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0080C994"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B6DFC3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008FCFA1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0067BF7F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0071C387"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0094D1A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CAE7D4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DEEFE5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CFE9D8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D9EDE1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EDF5F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F2F7F6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F7F9FA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A3D7B2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E3F1E9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F9989A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F88587"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FAB4B7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F86D6F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F87274"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F88082"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FAC3C5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F87B7E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FAD1D4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FBF2F5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FBDFE2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F98E91"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F99D9F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FBF7FA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FACCCF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FAD6D8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F9A1A4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F9A6A9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FAC7CA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F9B0B2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FBE4E7"/>
+        <fgColor rgb="00FABCBE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FACBCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FAD6D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -1205,7 +1485,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="284">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1434,6 +1714,62 @@
     <xf borderId="0" fillId="224" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="225" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="226" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="227" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="228" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="229" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="230" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="231" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="232" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="233" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="234" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="235" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="236" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="237" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="238" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="239" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="240" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="241" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="242" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="243" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="244" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="245" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="246" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="247" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="248" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="249" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="250" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="251" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="252" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="253" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="254" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="255" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="256" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="257" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="258" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="259" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="260" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="261" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="262" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="263" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="264" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="265" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="266" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="267" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="268" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="269" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="270" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="271" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="272" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="273" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="274" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="275" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="276" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="277" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="278" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="279" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="280" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="281" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="282" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -1879,7 +2215,7 @@
           <t>恒生</t>
         </is>
       </c>
-      <c r="C2" s="13" t="n">
+      <c r="C2" s="66" t="n">
         <v>0.7194</v>
       </c>
     </row>
@@ -1892,7 +2228,7 @@
           <t>台湾加权</t>
         </is>
       </c>
-      <c r="C3" s="10" t="n">
+      <c r="C3" s="67" t="n">
         <v>0.3389</v>
       </c>
     </row>
@@ -1905,7 +2241,7 @@
           <t>日经225</t>
         </is>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="68" t="n">
         <v>0.3741</v>
       </c>
     </row>
@@ -1918,7 +2254,7 @@
           <t>德国30</t>
         </is>
       </c>
-      <c r="C5" s="11" t="n">
+      <c r="C5" s="69" t="n">
         <v>0.3977</v>
       </c>
     </row>
@@ -1931,7 +2267,7 @@
           <t>富时100</t>
         </is>
       </c>
-      <c r="C6" s="44" t="n">
+      <c r="C6" s="21" t="n">
         <v>0.1781</v>
       </c>
     </row>
@@ -1944,7 +2280,7 @@
           <t>法国40</t>
         </is>
       </c>
-      <c r="C7" s="45" t="n">
+      <c r="C7" s="70" t="n">
         <v>0.4783</v>
       </c>
     </row>
@@ -1957,7 +2293,7 @@
           <t>道琼斯</t>
         </is>
       </c>
-      <c r="C8" s="46" t="n">
+      <c r="C8" s="71" t="n">
         <v>0.2519</v>
       </c>
     </row>
@@ -1970,7 +2306,7 @@
           <t>纳斯达克</t>
         </is>
       </c>
-      <c r="C9" s="47" t="n">
+      <c r="C9" s="72" t="n">
         <v>0.8434</v>
       </c>
     </row>
@@ -1983,7 +2319,7 @@
           <t>标普500</t>
         </is>
       </c>
-      <c r="C10" s="12" t="n">
+      <c r="C10" s="73" t="n">
         <v>0.1953</v>
       </c>
     </row>
@@ -2045,7 +2381,7 @@
           <t>恒生</t>
         </is>
       </c>
-      <c r="C2" s="48" t="n">
+      <c r="C2" s="74" t="n">
         <v>-0.115</v>
       </c>
     </row>
@@ -2058,7 +2394,7 @@
           <t>台湾加权</t>
         </is>
       </c>
-      <c r="C3" s="49" t="n">
+      <c r="C3" s="4" t="n">
         <v>-0.4512</v>
       </c>
     </row>
@@ -2071,7 +2407,7 @@
           <t>日经225</t>
         </is>
       </c>
-      <c r="C4" s="14" t="n">
+      <c r="C4" s="75" t="n">
         <v>-0.272</v>
       </c>
     </row>
@@ -2084,7 +2420,7 @@
           <t>德国30</t>
         </is>
       </c>
-      <c r="C5" s="50" t="n">
+      <c r="C5" s="76" t="n">
         <v>-0.0759</v>
       </c>
     </row>
@@ -2097,7 +2433,7 @@
           <t>富时100</t>
         </is>
       </c>
-      <c r="C6" s="51" t="n">
+      <c r="C6" s="77" t="n">
         <v>-0.1021</v>
       </c>
     </row>
@@ -2110,7 +2446,7 @@
           <t>法国40</t>
         </is>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="78" t="n">
         <v>-0.0163</v>
       </c>
     </row>
@@ -2123,7 +2459,7 @@
           <t>道琼斯</t>
         </is>
       </c>
-      <c r="C8" s="52" t="n">
+      <c r="C8" s="7" t="n">
         <v>-0.0622</v>
       </c>
     </row>
@@ -2136,7 +2472,7 @@
           <t>纳斯达克</t>
         </is>
       </c>
-      <c r="C9" s="53" t="n">
+      <c r="C9" s="79" t="n">
         <v>-0.4098</v>
       </c>
     </row>
@@ -2149,7 +2485,7 @@
           <t>标普500</t>
         </is>
       </c>
-      <c r="C10" s="9" t="n">
+      <c r="C10" s="80" t="n">
         <v>-0.1014</v>
       </c>
     </row>
@@ -2211,7 +2547,7 @@
           <t>恒生</t>
         </is>
       </c>
-      <c r="C2" s="53" t="n">
+      <c r="C2" s="81" t="n">
         <v>-0.2447</v>
       </c>
     </row>
@@ -2237,7 +2573,7 @@
           <t>日经225</t>
         </is>
       </c>
-      <c r="C4" s="14" t="n">
+      <c r="C4" s="82" t="n">
         <v>-0.2414</v>
       </c>
     </row>
@@ -2250,7 +2586,7 @@
           <t>德国30</t>
         </is>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="83" t="n">
         <v>-0.1976</v>
       </c>
     </row>
@@ -2263,7 +2599,7 @@
           <t>富时100</t>
         </is>
       </c>
-      <c r="C6" s="50" t="n">
+      <c r="C6" s="51" t="n">
         <v>-0.1615</v>
       </c>
     </row>
@@ -2276,7 +2612,7 @@
           <t>法国40</t>
         </is>
       </c>
-      <c r="C7" s="48" t="n">
+      <c r="C7" s="84" t="n">
         <v>-0.2236</v>
       </c>
     </row>
@@ -2289,7 +2625,7 @@
           <t>道琼斯</t>
         </is>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="85" t="n">
         <v>-0.0713</v>
       </c>
     </row>
@@ -2302,7 +2638,7 @@
           <t>纳斯达克</t>
         </is>
       </c>
-      <c r="C9" s="51" t="n">
+      <c r="C9" s="86" t="n">
         <v>-0.2117</v>
       </c>
     </row>
@@ -2315,7 +2651,7 @@
           <t>标普500</t>
         </is>
       </c>
-      <c r="C10" s="52" t="n">
+      <c r="C10" s="87" t="n">
         <v>-0.1304</v>
       </c>
     </row>
@@ -2328,7 +2664,7 @@
           <t>原油</t>
         </is>
       </c>
-      <c r="C11" s="49" t="n">
+      <c r="C11" s="4" t="n">
         <v>-0.2625</v>
       </c>
     </row>
@@ -2377,7 +2713,7 @@
           <t>恒生</t>
         </is>
       </c>
-      <c r="C2" s="52" t="n">
+      <c r="C2" s="88" t="n">
         <v>-0.1801</v>
       </c>
     </row>
@@ -2390,7 +2726,7 @@
           <t>台湾加权</t>
         </is>
       </c>
-      <c r="C3" s="9" t="n">
+      <c r="C3" s="89" t="n">
         <v>-0.2014</v>
       </c>
     </row>
@@ -2403,7 +2739,7 @@
           <t>日经225</t>
         </is>
       </c>
-      <c r="C4" s="50" t="n">
+      <c r="C4" s="90" t="n">
         <v>-0.193</v>
       </c>
     </row>
@@ -2416,7 +2752,7 @@
           <t>德国30</t>
         </is>
       </c>
-      <c r="C5" s="49" t="n">
+      <c r="C5" s="4" t="n">
         <v>-0.4389</v>
       </c>
     </row>
@@ -2429,7 +2765,7 @@
           <t>富时100</t>
         </is>
       </c>
-      <c r="C6" s="48" t="n">
+      <c r="C6" s="91" t="n">
         <v>-0.2448</v>
       </c>
     </row>
@@ -2442,7 +2778,7 @@
           <t>法国40</t>
         </is>
       </c>
-      <c r="C7" s="53" t="n">
+      <c r="C7" s="92" t="n">
         <v>-0.3365</v>
       </c>
     </row>
@@ -2455,7 +2791,7 @@
           <t>道琼斯</t>
         </is>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="93" t="n">
         <v>-0.1676</v>
       </c>
     </row>
@@ -2468,7 +2804,7 @@
           <t>纳斯达克</t>
         </is>
       </c>
-      <c r="C9" s="14" t="n">
+      <c r="C9" s="94" t="n">
         <v>-0.3204</v>
       </c>
     </row>
@@ -2481,7 +2817,7 @@
           <t>标普500</t>
         </is>
       </c>
-      <c r="C10" s="51" t="n">
+      <c r="C10" s="95" t="n">
         <v>-0.2337</v>
       </c>
     </row>
@@ -2543,7 +2879,7 @@
           <t>恒生</t>
         </is>
       </c>
-      <c r="C2" s="13" t="n">
+      <c r="C2" s="96" t="n">
         <v>0.3474</v>
       </c>
     </row>
@@ -2556,7 +2892,7 @@
           <t>台湾加权</t>
         </is>
       </c>
-      <c r="C3" s="45" t="n">
+      <c r="C3" s="97" t="n">
         <v>0.3206</v>
       </c>
     </row>
@@ -2569,7 +2905,7 @@
           <t>日经225</t>
         </is>
       </c>
-      <c r="C4" s="10" t="n">
+      <c r="C4" s="98" t="n">
         <v>0.2315</v>
       </c>
     </row>
@@ -2582,7 +2918,7 @@
           <t>德国30</t>
         </is>
       </c>
-      <c r="C5" s="47" t="n">
+      <c r="C5" s="99" t="n">
         <v>0.3679</v>
       </c>
     </row>
@@ -2595,7 +2931,7 @@
           <t>富时100</t>
         </is>
       </c>
-      <c r="C6" s="12" t="n">
+      <c r="C6" s="100" t="n">
         <v>0.1362</v>
       </c>
     </row>
@@ -2608,7 +2944,7 @@
           <t>法国40</t>
         </is>
       </c>
-      <c r="C7" s="46" t="n">
+      <c r="C7" s="101" t="n">
         <v>0.1638</v>
       </c>
     </row>
@@ -2621,7 +2957,7 @@
           <t>道琼斯</t>
         </is>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="102" t="n">
         <v>0.2531</v>
       </c>
     </row>
@@ -2647,7 +2983,7 @@
           <t>标普500</t>
         </is>
       </c>
-      <c r="C10" s="11" t="n">
+      <c r="C10" s="103" t="n">
         <v>0.2638</v>
       </c>
     </row>
@@ -2660,7 +2996,7 @@
           <t>原油</t>
         </is>
       </c>
-      <c r="C11" s="44" t="n">
+      <c r="C11" s="104" t="n">
         <v>0.0291</v>
       </c>
     </row>
@@ -2709,7 +3045,7 @@
           <t>上证50</t>
         </is>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="4" t="n">
         <v>-0.1547</v>
       </c>
     </row>
@@ -2722,7 +3058,7 @@
           <t>恒生</t>
         </is>
       </c>
-      <c r="C3" s="47" t="n">
+      <c r="C3" s="13" t="n">
         <v>0.1236</v>
       </c>
     </row>
@@ -2735,7 +3071,7 @@
           <t>台湾加权</t>
         </is>
       </c>
-      <c r="C4" s="12" t="n">
+      <c r="C4" s="105" t="n">
         <v>0.0394</v>
       </c>
     </row>
@@ -2748,7 +3084,7 @@
           <t>日经225</t>
         </is>
       </c>
-      <c r="C5" s="46" t="n">
+      <c r="C5" s="17" t="n">
         <v>0.065</v>
       </c>
     </row>
@@ -2761,7 +3097,7 @@
           <t>德国30</t>
         </is>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="106" t="n">
         <v>0.0723</v>
       </c>
     </row>
@@ -2774,7 +3110,7 @@
           <t>富时100</t>
         </is>
       </c>
-      <c r="C7" s="11" t="n">
+      <c r="C7" s="107" t="n">
         <v>0.07539999999999999</v>
       </c>
     </row>
@@ -2787,7 +3123,7 @@
           <t>法国40</t>
         </is>
       </c>
-      <c r="C8" s="10" t="n">
+      <c r="C8" s="106" t="n">
         <v>0.0723</v>
       </c>
     </row>
@@ -2800,7 +3136,7 @@
           <t>道琼斯</t>
         </is>
       </c>
-      <c r="C9" s="44" t="n">
+      <c r="C9" s="108" t="n">
         <v>0.0316</v>
       </c>
     </row>
@@ -2813,7 +3149,7 @@
           <t>纳斯达克</t>
         </is>
       </c>
-      <c r="C10" s="45" t="n">
+      <c r="C10" s="109" t="n">
         <v>0.08169999999999999</v>
       </c>
     </row>
@@ -2826,7 +3162,7 @@
           <t>标普500</t>
         </is>
       </c>
-      <c r="C11" s="13" t="n">
+      <c r="C11" s="110" t="n">
         <v>0.08989999999999999</v>
       </c>
     </row>
@@ -2888,7 +3224,7 @@
           <t>上证50</t>
         </is>
       </c>
-      <c r="C2" s="54" t="n">
+      <c r="C2" s="111" t="n">
         <v>-0.0485</v>
       </c>
     </row>
@@ -2901,7 +3237,7 @@
           <t>沪深300</t>
         </is>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="112" t="n">
         <v>-0.0717</v>
       </c>
     </row>
@@ -2914,7 +3250,7 @@
           <t>基本面60</t>
         </is>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="113" t="n">
         <v>-0.0565</v>
       </c>
     </row>
@@ -2927,7 +3263,7 @@
           <t>基本面120</t>
         </is>
       </c>
-      <c r="C5" s="55" t="n">
+      <c r="C5" s="113" t="n">
         <v>-0.0569</v>
       </c>
     </row>
@@ -2940,7 +3276,7 @@
           <t>中证500</t>
         </is>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="114" t="n">
         <v>-0.137</v>
       </c>
     </row>
@@ -2953,7 +3289,7 @@
           <t>中证1000</t>
         </is>
       </c>
-      <c r="C7" s="56" t="n">
+      <c r="C7" s="4" t="n">
         <v>-0.1541</v>
       </c>
     </row>
@@ -2966,7 +3302,7 @@
           <t>养老产业</t>
         </is>
       </c>
-      <c r="C8" s="57" t="n">
+      <c r="C8" s="115" t="n">
         <v>-0.1227</v>
       </c>
     </row>
@@ -2979,7 +3315,7 @@
           <t>恒生</t>
         </is>
       </c>
-      <c r="C9" s="26" t="n">
+      <c r="C9" s="116" t="n">
         <v>0.0465</v>
       </c>
     </row>
@@ -2992,7 +3328,7 @@
           <t>台湾加权</t>
         </is>
       </c>
-      <c r="C10" s="27" t="n">
+      <c r="C10" s="117" t="n">
         <v>0.0619</v>
       </c>
     </row>
@@ -3005,7 +3341,7 @@
           <t>日经225</t>
         </is>
       </c>
-      <c r="C11" s="21" t="n">
+      <c r="C11" s="50" t="n">
         <v>0.4061</v>
       </c>
     </row>
@@ -3018,7 +3354,7 @@
           <t>德国30</t>
         </is>
       </c>
-      <c r="C12" s="23" t="n">
+      <c r="C12" s="118" t="n">
         <v>0.2693</v>
       </c>
     </row>
@@ -3031,7 +3367,7 @@
           <t>富时100</t>
         </is>
       </c>
-      <c r="C13" s="24" t="n">
+      <c r="C13" s="25" t="n">
         <v>0.1671</v>
       </c>
     </row>
@@ -3044,7 +3380,7 @@
           <t>法国40</t>
         </is>
       </c>
-      <c r="C14" s="25" t="n">
+      <c r="C14" s="119" t="n">
         <v>0.2309</v>
       </c>
     </row>
@@ -3057,7 +3393,7 @@
           <t>道琼斯</t>
         </is>
       </c>
-      <c r="C15" s="6" t="n">
+      <c r="C15" s="120" t="n">
         <v>-0.0061</v>
       </c>
     </row>
@@ -3070,7 +3406,7 @@
           <t>纳斯达克</t>
         </is>
       </c>
-      <c r="C16" s="22" t="n">
+      <c r="C16" s="24" t="n">
         <v>0.0094</v>
       </c>
     </row>
@@ -3083,7 +3419,7 @@
           <t>标普500</t>
         </is>
       </c>
-      <c r="C17" s="28" t="n">
+      <c r="C17" s="22" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -3158,7 +3494,7 @@
           <t>沪深300</t>
         </is>
       </c>
-      <c r="C3" s="58" t="n">
+      <c r="C3" s="121" t="n">
         <v>1.2028</v>
       </c>
     </row>
@@ -3171,7 +3507,7 @@
           <t>基本面60</t>
         </is>
       </c>
-      <c r="C4" s="41" t="n">
+      <c r="C4" s="122" t="n">
         <v>1.0853</v>
       </c>
     </row>
@@ -3184,7 +3520,7 @@
           <t>基本面120</t>
         </is>
       </c>
-      <c r="C5" s="21" t="n">
+      <c r="C5" s="123" t="n">
         <v>1.1434</v>
       </c>
     </row>
@@ -3197,7 +3533,7 @@
           <t>中小板</t>
         </is>
       </c>
-      <c r="C6" s="59" t="n">
+      <c r="C6" s="124" t="n">
         <v>0.6934</v>
       </c>
     </row>
@@ -3210,7 +3546,7 @@
           <t>中证500</t>
         </is>
       </c>
-      <c r="C7" s="23" t="n">
+      <c r="C7" s="125" t="n">
         <v>1.0071</v>
       </c>
     </row>
@@ -3223,7 +3559,7 @@
           <t>中证1000</t>
         </is>
       </c>
-      <c r="C8" s="43" t="n">
+      <c r="C8" s="126" t="n">
         <v>0.7598</v>
       </c>
     </row>
@@ -3236,7 +3572,7 @@
           <t>养老产业</t>
         </is>
       </c>
-      <c r="C9" s="60" t="n">
+      <c r="C9" s="127" t="n">
         <v>0.8623</v>
       </c>
     </row>
@@ -3249,7 +3585,7 @@
           <t>恒生</t>
         </is>
       </c>
-      <c r="C10" s="24" t="n">
+      <c r="C10" s="128" t="n">
         <v>0.345</v>
       </c>
     </row>
@@ -3262,7 +3598,7 @@
           <t>台湾加权</t>
         </is>
       </c>
-      <c r="C11" s="27" t="n">
+      <c r="C11" s="129" t="n">
         <v>0.2116</v>
       </c>
     </row>
@@ -3275,7 +3611,7 @@
           <t>日经225</t>
         </is>
       </c>
-      <c r="C12" s="22" t="n">
+      <c r="C12" s="130" t="n">
         <v>0.0571</v>
       </c>
     </row>
@@ -3288,7 +3624,7 @@
           <t>德国30</t>
         </is>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="26" t="n">
         <v>0.2193</v>
       </c>
     </row>
@@ -3301,7 +3637,7 @@
           <t>富时100</t>
         </is>
       </c>
-      <c r="C14" s="28" t="n">
+      <c r="C14" s="34" t="n">
         <v>0.1071</v>
       </c>
     </row>
@@ -3314,7 +3650,7 @@
           <t>法国40</t>
         </is>
       </c>
-      <c r="C15" s="61" t="n">
+      <c r="C15" s="131" t="n">
         <v>0.1711</v>
       </c>
     </row>
@@ -3327,7 +3663,7 @@
           <t>道琼斯</t>
         </is>
       </c>
-      <c r="C16" s="42" t="n">
+      <c r="C16" s="132" t="n">
         <v>0.1628</v>
       </c>
     </row>
@@ -3340,7 +3676,7 @@
           <t>纳斯达克</t>
         </is>
       </c>
-      <c r="C17" s="40" t="n">
+      <c r="C17" s="22" t="n">
         <v>0.0897</v>
       </c>
     </row>
@@ -3353,7 +3689,7 @@
           <t>标普500</t>
         </is>
       </c>
-      <c r="C18" s="62" t="n">
+      <c r="C18" s="133" t="n">
         <v>0.1362</v>
       </c>
     </row>
@@ -3366,7 +3702,7 @@
           <t>原油</t>
         </is>
       </c>
-      <c r="C19" s="63" t="n">
+      <c r="C19" s="134" t="n">
         <v>0.0002</v>
       </c>
     </row>
@@ -3415,7 +3751,7 @@
           <t>上证50</t>
         </is>
       </c>
-      <c r="C2" s="64" t="n">
+      <c r="C2" s="135" t="n">
         <v>1.2939</v>
       </c>
     </row>
@@ -3428,7 +3764,7 @@
           <t>沪深300</t>
         </is>
       </c>
-      <c r="C3" s="65" t="n">
+      <c r="C3" s="136" t="n">
         <v>1.5748</v>
       </c>
     </row>
@@ -3441,7 +3777,7 @@
           <t>基本面60</t>
         </is>
       </c>
-      <c r="C4" s="66" t="n">
+      <c r="C4" s="50" t="n">
         <v>2.0072</v>
       </c>
     </row>
@@ -3454,7 +3790,7 @@
           <t>基本面120</t>
         </is>
       </c>
-      <c r="C5" s="67" t="n">
+      <c r="C5" s="137" t="n">
         <v>1.98</v>
       </c>
     </row>
@@ -3467,7 +3803,7 @@
           <t>中小板</t>
         </is>
       </c>
-      <c r="C6" s="68" t="n">
+      <c r="C6" s="138" t="n">
         <v>1.5157</v>
       </c>
     </row>
@@ -3480,7 +3816,7 @@
           <t>中证500</t>
         </is>
       </c>
-      <c r="C7" s="69" t="n">
+      <c r="C7" s="139" t="n">
         <v>1.8452</v>
       </c>
     </row>
@@ -3493,7 +3829,7 @@
           <t>中证1000</t>
         </is>
       </c>
-      <c r="C8" s="58" t="n">
+      <c r="C8" s="140" t="n">
         <v>2.0103</v>
       </c>
     </row>
@@ -3519,7 +3855,7 @@
           <t>恒生</t>
         </is>
       </c>
-      <c r="C10" s="70" t="n">
+      <c r="C10" s="141" t="n">
         <v>0.3903</v>
       </c>
     </row>
@@ -3532,7 +3868,7 @@
           <t>台湾加权</t>
         </is>
       </c>
-      <c r="C11" s="71" t="n">
+      <c r="C11" s="142" t="n">
         <v>0.08069999999999999</v>
       </c>
     </row>
@@ -3545,7 +3881,7 @@
           <t>日经225</t>
         </is>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="C12" s="4" t="n">
         <v>-0.1163</v>
       </c>
     </row>
@@ -3558,7 +3894,7 @@
           <t>德国30</t>
         </is>
       </c>
-      <c r="C13" s="72" t="n">
+      <c r="C13" s="143" t="n">
         <v>0.2196</v>
       </c>
     </row>
@@ -3571,7 +3907,7 @@
           <t>富时100</t>
         </is>
       </c>
-      <c r="C14" s="73" t="n">
+      <c r="C14" s="38" t="n">
         <v>0.038</v>
       </c>
     </row>
@@ -3584,7 +3920,7 @@
           <t>法国40</t>
         </is>
       </c>
-      <c r="C15" s="63" t="n">
+      <c r="C15" s="134" t="n">
         <v>0.0069</v>
       </c>
     </row>
@@ -3597,7 +3933,7 @@
           <t>道琼斯</t>
         </is>
       </c>
-      <c r="C16" s="74" t="n">
+      <c r="C16" s="144" t="n">
         <v>0.0646</v>
       </c>
     </row>
@@ -3610,7 +3946,7 @@
           <t>纳斯达克</t>
         </is>
       </c>
-      <c r="C17" s="75" t="n">
+      <c r="C17" s="130" t="n">
         <v>0.0916</v>
       </c>
     </row>
@@ -3623,7 +3959,7 @@
           <t>标普500</t>
         </is>
       </c>
-      <c r="C18" s="76" t="n">
+      <c r="C18" s="38" t="n">
         <v>0.0355</v>
       </c>
     </row>
@@ -3636,7 +3972,7 @@
           <t>原油</t>
         </is>
       </c>
-      <c r="C19" s="77" t="n">
+      <c r="C19" s="100" t="n">
         <v>0.574</v>
       </c>
     </row>
@@ -3685,7 +4021,7 @@
           <t>上证50</t>
         </is>
       </c>
-      <c r="C2" s="78" t="n">
+      <c r="C2" s="4" t="n">
         <v>-0.6727</v>
       </c>
     </row>
@@ -3698,7 +4034,7 @@
           <t>沪深300</t>
         </is>
       </c>
-      <c r="C3" s="79" t="n">
+      <c r="C3" s="145" t="n">
         <v>-0.6602</v>
       </c>
     </row>
@@ -3711,7 +4047,7 @@
           <t>300价值</t>
         </is>
       </c>
-      <c r="C4" s="80" t="n">
+      <c r="C4" s="146" t="n">
         <v>-0.6659</v>
       </c>
     </row>
@@ -3724,7 +4060,7 @@
           <t>基本面60</t>
         </is>
       </c>
-      <c r="C5" s="81" t="n">
+      <c r="C5" s="147" t="n">
         <v>-0.6304</v>
       </c>
     </row>
@@ -3737,7 +4073,7 @@
           <t>基本面120</t>
         </is>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="148" t="n">
         <v>-0.6241</v>
       </c>
     </row>
@@ -3750,7 +4086,7 @@
           <t>中小板</t>
         </is>
       </c>
-      <c r="C7" s="82" t="n">
+      <c r="C7" s="86" t="n">
         <v>-0.5426</v>
       </c>
     </row>
@@ -3763,7 +4099,7 @@
           <t>中证500</t>
         </is>
       </c>
-      <c r="C8" s="83" t="n">
+      <c r="C8" s="79" t="n">
         <v>-0.6092</v>
       </c>
     </row>
@@ -3776,7 +4112,7 @@
           <t>中证1000</t>
         </is>
       </c>
-      <c r="C9" s="84" t="n">
+      <c r="C9" s="149" t="n">
         <v>-0.5939</v>
       </c>
     </row>
@@ -3789,7 +4125,7 @@
           <t>中证红利</t>
         </is>
       </c>
-      <c r="C10" s="85" t="n">
+      <c r="C10" s="150" t="n">
         <v>-0.38</v>
       </c>
     </row>
@@ -3802,7 +4138,7 @@
           <t>养老产业</t>
         </is>
       </c>
-      <c r="C11" s="86" t="n">
+      <c r="C11" s="151" t="n">
         <v>-0.5548</v>
       </c>
     </row>
@@ -3815,7 +4151,7 @@
           <t>恒生</t>
         </is>
       </c>
-      <c r="C12" s="87" t="n">
+      <c r="C12" s="152" t="n">
         <v>-0.4793</v>
       </c>
     </row>
@@ -3828,7 +4164,7 @@
           <t>台湾加权</t>
         </is>
       </c>
-      <c r="C13" s="88" t="n">
+      <c r="C13" s="153" t="n">
         <v>-0.4626</v>
       </c>
     </row>
@@ -3841,7 +4177,7 @@
           <t>日经225</t>
         </is>
       </c>
-      <c r="C14" s="89" t="n">
+      <c r="C14" s="51" t="n">
         <v>-0.4154</v>
       </c>
     </row>
@@ -3854,7 +4190,7 @@
           <t>德国30</t>
         </is>
       </c>
-      <c r="C15" s="90" t="n">
+      <c r="C15" s="154" t="n">
         <v>-0.4037</v>
       </c>
     </row>
@@ -3867,7 +4203,7 @@
           <t>富时100</t>
         </is>
       </c>
-      <c r="C16" s="6" t="n">
+      <c r="C16" s="112" t="n">
         <v>-0.3133</v>
       </c>
     </row>
@@ -3880,7 +4216,7 @@
           <t>法国40</t>
         </is>
       </c>
-      <c r="C17" s="91" t="n">
+      <c r="C17" s="155" t="n">
         <v>-0.4264</v>
       </c>
     </row>
@@ -3893,7 +4229,7 @@
           <t>道琼斯</t>
         </is>
       </c>
-      <c r="C18" s="92" t="n">
+      <c r="C18" s="156" t="n">
         <v>-0.3382</v>
       </c>
     </row>
@@ -3906,7 +4242,7 @@
           <t>纳斯达克</t>
         </is>
       </c>
-      <c r="C19" s="7" t="n">
+      <c r="C19" s="75" t="n">
         <v>-0.4058</v>
       </c>
     </row>
@@ -3919,7 +4255,7 @@
           <t>标普500</t>
         </is>
       </c>
-      <c r="C20" s="93" t="n">
+      <c r="C20" s="157" t="n">
         <v>-0.3847</v>
       </c>
     </row>
@@ -3932,7 +4268,7 @@
           <t>原油</t>
         </is>
       </c>
-      <c r="C21" s="5" t="n">
+      <c r="C21" s="115" t="n">
         <v>-0.5357</v>
       </c>
     </row>
@@ -4007,7 +4343,7 @@
           <t>德国30</t>
         </is>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="10" t="n">
         <v>-0.0182</v>
       </c>
     </row>
@@ -4020,7 +4356,7 @@
           <t>法国40</t>
         </is>
       </c>
-      <c r="C5" s="10" t="n">
+      <c r="C5" s="11" t="n">
         <v>0.1737</v>
       </c>
     </row>
@@ -4033,7 +4369,7 @@
           <t>道琼斯</t>
         </is>
       </c>
-      <c r="C6" s="11" t="n">
+      <c r="C6" s="12" t="n">
         <v>0.2032</v>
       </c>
     </row>
@@ -4046,7 +4382,7 @@
           <t>纳斯达克</t>
         </is>
       </c>
-      <c r="C7" s="12" t="n">
+      <c r="C7" s="13" t="n">
         <v>0.1536</v>
       </c>
     </row>
@@ -4059,7 +4395,7 @@
           <t>标普500</t>
         </is>
       </c>
-      <c r="C8" s="13" t="n">
+      <c r="C8" s="14" t="n">
         <v>0.2631</v>
       </c>
     </row>
@@ -4072,7 +4408,7 @@
           <t>原油</t>
         </is>
       </c>
-      <c r="C9" s="14" t="n">
+      <c r="C9" s="4" t="n">
         <v>-0.3201</v>
       </c>
     </row>
@@ -4121,7 +4457,7 @@
           <t>上证50</t>
         </is>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="158" t="n">
         <v>0.8098</v>
       </c>
     </row>
@@ -4134,7 +4470,7 @@
           <t>沪深300</t>
         </is>
       </c>
-      <c r="C3" s="94" t="n">
+      <c r="C3" s="159" t="n">
         <v>0.9345</v>
       </c>
     </row>
@@ -4147,7 +4483,7 @@
           <t>300价值</t>
         </is>
       </c>
-      <c r="C4" s="11" t="n">
+      <c r="C4" s="65" t="n">
         <v>0.9283</v>
       </c>
     </row>
@@ -4160,7 +4496,7 @@
           <t>基本面60</t>
         </is>
       </c>
-      <c r="C5" s="95" t="n">
+      <c r="C5" s="160" t="n">
         <v>1.1034</v>
       </c>
     </row>
@@ -4173,7 +4509,7 @@
           <t>基本面120</t>
         </is>
       </c>
-      <c r="C6" s="47" t="n">
+      <c r="C6" s="41" t="n">
         <v>1.1359</v>
       </c>
     </row>
@@ -4186,7 +4522,7 @@
           <t>中小板</t>
         </is>
       </c>
-      <c r="C7" s="45" t="n">
+      <c r="C7" s="159" t="n">
         <v>0.9349</v>
       </c>
     </row>
@@ -4199,7 +4535,7 @@
           <t>中证500</t>
         </is>
       </c>
-      <c r="C8" s="96" t="n">
+      <c r="C8" s="161" t="n">
         <v>1.2772</v>
       </c>
     </row>
@@ -4225,7 +4561,7 @@
           <t>中证红利</t>
         </is>
       </c>
-      <c r="C10" s="13" t="n">
+      <c r="C10" s="162" t="n">
         <v>1.0616</v>
       </c>
     </row>
@@ -4238,7 +4574,7 @@
           <t>养老产业</t>
         </is>
       </c>
-      <c r="C11" s="30" t="n">
+      <c r="C11" s="72" t="n">
         <v>1.0356</v>
       </c>
     </row>
@@ -4251,7 +4587,7 @@
           <t>恒生</t>
         </is>
       </c>
-      <c r="C12" s="10" t="n">
+      <c r="C12" s="163" t="n">
         <v>0.5139</v>
       </c>
     </row>
@@ -4264,7 +4600,7 @@
           <t>台湾加权</t>
         </is>
       </c>
-      <c r="C13" s="97" t="n">
+      <c r="C13" s="164" t="n">
         <v>0.7328</v>
       </c>
     </row>
@@ -4277,7 +4613,7 @@
           <t>日经225</t>
         </is>
       </c>
-      <c r="C14" s="98" t="n">
+      <c r="C14" s="28" t="n">
         <v>0.173</v>
       </c>
     </row>
@@ -4290,7 +4626,7 @@
           <t>德国30</t>
         </is>
       </c>
-      <c r="C15" s="34" t="n">
+      <c r="C15" s="129" t="n">
         <v>0.2302</v>
       </c>
     </row>
@@ -4303,7 +4639,7 @@
           <t>富时100</t>
         </is>
       </c>
-      <c r="C16" s="12" t="n">
+      <c r="C16" s="21" t="n">
         <v>0.2207</v>
       </c>
     </row>
@@ -4316,7 +4652,7 @@
           <t>法国40</t>
         </is>
       </c>
-      <c r="C17" s="99" t="n">
+      <c r="C17" s="21" t="n">
         <v>0.2146</v>
       </c>
     </row>
@@ -4329,7 +4665,7 @@
           <t>道琼斯</t>
         </is>
       </c>
-      <c r="C18" s="44" t="n">
+      <c r="C18" s="131" t="n">
         <v>0.1888</v>
       </c>
     </row>
@@ -4342,7 +4678,7 @@
           <t>纳斯达克</t>
         </is>
       </c>
-      <c r="C19" s="100" t="n">
+      <c r="C19" s="165" t="n">
         <v>0.4372</v>
       </c>
     </row>
@@ -4355,7 +4691,7 @@
           <t>标普500</t>
         </is>
       </c>
-      <c r="C20" s="46" t="n">
+      <c r="C20" s="26" t="n">
         <v>0.2349</v>
       </c>
     </row>
@@ -4368,7 +4704,7 @@
           <t>原油</t>
         </is>
       </c>
-      <c r="C21" s="101" t="n">
+      <c r="C21" s="166" t="n">
         <v>0.8152</v>
       </c>
     </row>
@@ -4417,7 +4753,7 @@
           <t>上证50</t>
         </is>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="167" t="n">
         <v>-0.2291</v>
       </c>
     </row>
@@ -4430,7 +4766,7 @@
           <t>沪深300</t>
         </is>
       </c>
-      <c r="C3" s="55" t="n">
+      <c r="C3" s="168" t="n">
         <v>-0.1292</v>
       </c>
     </row>
@@ -4443,7 +4779,7 @@
           <t>300价值</t>
         </is>
       </c>
-      <c r="C4" s="56" t="n">
+      <c r="C4" s="4" t="n">
         <v>-0.2437</v>
       </c>
     </row>
@@ -4456,7 +4792,7 @@
           <t>基本面60</t>
         </is>
       </c>
-      <c r="C5" s="57" t="n">
+      <c r="C5" s="169" t="n">
         <v>-0.1592</v>
       </c>
     </row>
@@ -4469,7 +4805,7 @@
           <t>基本面120</t>
         </is>
       </c>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="170" t="n">
         <v>-0.1102</v>
       </c>
     </row>
@@ -4495,7 +4831,7 @@
           <t>中证500</t>
         </is>
       </c>
-      <c r="C8" s="102" t="n">
+      <c r="C8" s="56" t="n">
         <v>0.0949</v>
       </c>
     </row>
@@ -4508,7 +4844,7 @@
           <t>中证1000</t>
         </is>
       </c>
-      <c r="C9" s="103" t="n">
+      <c r="C9" s="45" t="n">
         <v>0.1681</v>
       </c>
     </row>
@@ -4521,7 +4857,7 @@
           <t>创业板</t>
         </is>
       </c>
-      <c r="C10" s="104" t="n">
+      <c r="C10" s="171" t="n">
         <v>0.1538</v>
       </c>
     </row>
@@ -4534,7 +4870,7 @@
           <t>中证红利</t>
         </is>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="172" t="n">
         <v>-0.1372</v>
       </c>
     </row>
@@ -4547,7 +4883,7 @@
           <t>养老产业</t>
         </is>
       </c>
-      <c r="C12" s="99" t="n">
+      <c r="C12" s="25" t="n">
         <v>0.08309999999999999</v>
       </c>
     </row>
@@ -4560,7 +4896,7 @@
           <t>恒生</t>
         </is>
       </c>
-      <c r="C13" s="105" t="n">
+      <c r="C13" s="173" t="n">
         <v>0.0538</v>
       </c>
     </row>
@@ -4573,7 +4909,7 @@
           <t>台湾加权</t>
         </is>
       </c>
-      <c r="C14" s="106" t="n">
+      <c r="C14" s="174" t="n">
         <v>0.0912</v>
       </c>
     </row>
@@ -4586,7 +4922,7 @@
           <t>日经225</t>
         </is>
       </c>
-      <c r="C15" s="6" t="n">
+      <c r="C15" s="175" t="n">
         <v>-0.0359</v>
       </c>
     </row>
@@ -4599,7 +4935,7 @@
           <t>德国30</t>
         </is>
       </c>
-      <c r="C16" s="95" t="n">
+      <c r="C16" s="176" t="n">
         <v>0.1571</v>
       </c>
     </row>
@@ -4612,7 +4948,7 @@
           <t>富时100</t>
         </is>
       </c>
-      <c r="C17" s="107" t="n">
+      <c r="C17" s="57" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -4625,7 +4961,7 @@
           <t>法国40</t>
         </is>
       </c>
-      <c r="C18" s="54" t="n">
+      <c r="C18" s="177" t="n">
         <v>-0.0373</v>
       </c>
     </row>
@@ -4638,7 +4974,7 @@
           <t>道琼斯</t>
         </is>
       </c>
-      <c r="C19" s="108" t="n">
+      <c r="C19" s="164" t="n">
         <v>0.1099</v>
       </c>
     </row>
@@ -4651,7 +4987,7 @@
           <t>纳斯达克</t>
         </is>
       </c>
-      <c r="C20" s="109" t="n">
+      <c r="C20" s="72" t="n">
         <v>0.1562</v>
       </c>
     </row>
@@ -4664,7 +5000,7 @@
           <t>标普500</t>
         </is>
       </c>
-      <c r="C21" s="110" t="n">
+      <c r="C21" s="20" t="n">
         <v>0.1161</v>
       </c>
     </row>
@@ -4677,7 +5013,7 @@
           <t>原油</t>
         </is>
       </c>
-      <c r="C22" s="111" t="n">
+      <c r="C22" s="178" t="n">
         <v>0.1457</v>
       </c>
     </row>
@@ -4726,7 +5062,7 @@
           <t>上证50</t>
         </is>
       </c>
-      <c r="C2" s="112" t="n">
+      <c r="C2" s="179" t="n">
         <v>-0.1889</v>
       </c>
     </row>
@@ -4739,7 +5075,7 @@
           <t>沪深300</t>
         </is>
       </c>
-      <c r="C3" s="113" t="n">
+      <c r="C3" s="153" t="n">
         <v>-0.2566</v>
       </c>
     </row>
@@ -4752,7 +5088,7 @@
           <t>300价值</t>
         </is>
       </c>
-      <c r="C4" s="114" t="n">
+      <c r="C4" s="156" t="n">
         <v>-0.1868</v>
       </c>
     </row>
@@ -4765,7 +5101,7 @@
           <t>基本面60</t>
         </is>
       </c>
-      <c r="C5" s="115" t="n">
+      <c r="C5" s="92" t="n">
         <v>-0.2856</v>
       </c>
     </row>
@@ -4778,7 +5114,7 @@
           <t>基本面120</t>
         </is>
       </c>
-      <c r="C6" s="116" t="n">
+      <c r="C6" s="180" t="n">
         <v>-0.2945</v>
       </c>
     </row>
@@ -4791,7 +5127,7 @@
           <t>中小板</t>
         </is>
       </c>
-      <c r="C7" s="117" t="n">
+      <c r="C7" s="4" t="n">
         <v>-0.3731</v>
       </c>
     </row>
@@ -4804,7 +5140,7 @@
           <t>中证500</t>
         </is>
       </c>
-      <c r="C8" s="118" t="n">
+      <c r="C8" s="181" t="n">
         <v>-0.3419</v>
       </c>
     </row>
@@ -4817,7 +5153,7 @@
           <t>中证1000</t>
         </is>
       </c>
-      <c r="C9" s="119" t="n">
+      <c r="C9" s="114" t="n">
         <v>-0.3327</v>
       </c>
     </row>
@@ -4830,7 +5166,7 @@
           <t>创业板</t>
         </is>
       </c>
-      <c r="C10" s="120" t="n">
+      <c r="C10" s="182" t="n">
         <v>-0.3613</v>
       </c>
     </row>
@@ -4843,7 +5179,7 @@
           <t>中证红利</t>
         </is>
       </c>
-      <c r="C11" s="121" t="n">
+      <c r="C11" s="169" t="n">
         <v>-0.2433</v>
       </c>
     </row>
@@ -4856,7 +5192,7 @@
           <t>养老产业</t>
         </is>
       </c>
-      <c r="C12" s="122" t="n">
+      <c r="C12" s="183" t="n">
         <v>-0.2986</v>
       </c>
     </row>
@@ -4869,7 +5205,7 @@
           <t>全指医药</t>
         </is>
       </c>
-      <c r="C13" s="123" t="n">
+      <c r="C13" s="184" t="n">
         <v>-0.2401</v>
       </c>
     </row>
@@ -4882,7 +5218,7 @@
           <t>金融地产</t>
         </is>
       </c>
-      <c r="C14" s="124" t="n">
+      <c r="C14" s="32" t="n">
         <v>-0.1242</v>
       </c>
     </row>
@@ -4895,7 +5231,7 @@
           <t>全指消费</t>
         </is>
       </c>
-      <c r="C15" s="125" t="n">
+      <c r="C15" s="179" t="n">
         <v>-0.1883</v>
       </c>
     </row>
@@ -4908,7 +5244,7 @@
           <t>恒生</t>
         </is>
       </c>
-      <c r="C16" s="126" t="n">
+      <c r="C16" s="33" t="n">
         <v>-0.2032</v>
       </c>
     </row>
@@ -4921,7 +5257,7 @@
           <t>台湾加权</t>
         </is>
       </c>
-      <c r="C17" s="127" t="n">
+      <c r="C17" s="185" t="n">
         <v>-0.2178</v>
       </c>
     </row>
@@ -4934,7 +5270,7 @@
           <t>日经225</t>
         </is>
       </c>
-      <c r="C18" s="128" t="n">
+      <c r="C18" s="186" t="n">
         <v>-0.1832</v>
       </c>
     </row>
@@ -4947,7 +5283,7 @@
           <t>德国30</t>
         </is>
       </c>
-      <c r="C19" s="129" t="n">
+      <c r="C19" s="187" t="n">
         <v>-0.1542</v>
       </c>
     </row>
@@ -4960,7 +5296,7 @@
           <t>富时100</t>
         </is>
       </c>
-      <c r="C20" s="130" t="n">
+      <c r="C20" s="175" t="n">
         <v>-0.0555</v>
       </c>
     </row>
@@ -4973,7 +5309,7 @@
           <t>法国40</t>
         </is>
       </c>
-      <c r="C21" s="131" t="n">
+      <c r="C21" s="188" t="n">
         <v>-0.1766</v>
       </c>
     </row>
@@ -4986,7 +5322,7 @@
           <t>道琼斯</t>
         </is>
       </c>
-      <c r="C22" s="25" t="n">
+      <c r="C22" s="66" t="n">
         <v>0.0553</v>
       </c>
     </row>
@@ -4999,7 +5335,7 @@
           <t>纳斯达克</t>
         </is>
       </c>
-      <c r="C23" s="132" t="n">
+      <c r="C23" s="189" t="n">
         <v>-0.0267</v>
       </c>
     </row>
@@ -5012,7 +5348,7 @@
           <t>标普500</t>
         </is>
       </c>
-      <c r="C24" s="26" t="n">
+      <c r="C24" s="190" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -5025,7 +5361,7 @@
           <t>黄金</t>
         </is>
       </c>
-      <c r="C25" s="6" t="n">
+      <c r="C25" s="10" t="n">
         <v>-0.0214</v>
       </c>
     </row>
@@ -5051,7 +5387,7 @@
           <t>白银</t>
         </is>
       </c>
-      <c r="C27" s="133" t="n">
+      <c r="C27" s="191" t="n">
         <v>-0.2928</v>
       </c>
     </row>
@@ -5100,7 +5436,7 @@
           <t>上证50</t>
         </is>
       </c>
-      <c r="C2" s="134" t="n">
+      <c r="C2" s="192" t="n">
         <v>0.141</v>
       </c>
     </row>
@@ -5113,7 +5449,7 @@
           <t>沪深300</t>
         </is>
       </c>
-      <c r="C3" s="72" t="n">
+      <c r="C3" s="193" t="n">
         <v>0.0684</v>
       </c>
     </row>
@@ -5126,7 +5462,7 @@
           <t>300价值</t>
         </is>
       </c>
-      <c r="C4" s="135" t="n">
+      <c r="C4" s="194" t="n">
         <v>0.1236</v>
       </c>
     </row>
@@ -5139,7 +5475,7 @@
           <t>基本面60</t>
         </is>
       </c>
-      <c r="C5" s="136" t="n">
+      <c r="C5" s="195" t="n">
         <v>0.0147</v>
       </c>
     </row>
@@ -5152,7 +5488,7 @@
           <t>基本面120</t>
         </is>
       </c>
-      <c r="C6" s="137" t="n">
+      <c r="C6" s="134" t="n">
         <v>0.0018</v>
       </c>
     </row>
@@ -5165,7 +5501,7 @@
           <t>中小板</t>
         </is>
       </c>
-      <c r="C7" s="35" t="n">
+      <c r="C7" s="196" t="n">
         <v>-0.0198</v>
       </c>
     </row>
@@ -5178,7 +5514,7 @@
           <t>中证500</t>
         </is>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="10" t="n">
         <v>-0.0045</v>
       </c>
     </row>
@@ -5191,7 +5527,7 @@
           <t>中证1000</t>
         </is>
       </c>
-      <c r="C9" s="31" t="n">
+      <c r="C9" s="197" t="n">
         <v>-0.0206</v>
       </c>
     </row>
@@ -5204,7 +5540,7 @@
           <t>创业板</t>
         </is>
       </c>
-      <c r="C10" s="33" t="n">
+      <c r="C10" s="198" t="n">
         <v>-0.0284</v>
       </c>
     </row>
@@ -5217,7 +5553,7 @@
           <t>中证红利</t>
         </is>
       </c>
-      <c r="C11" s="138" t="n">
+      <c r="C11" s="199" t="n">
         <v>0.0631</v>
       </c>
     </row>
@@ -5230,7 +5566,7 @@
           <t>养老产业</t>
         </is>
       </c>
-      <c r="C12" s="139" t="n">
+      <c r="C12" s="108" t="n">
         <v>0.026</v>
       </c>
     </row>
@@ -5243,7 +5579,7 @@
           <t>全指医药</t>
         </is>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="200" t="n">
         <v>0.0829</v>
       </c>
     </row>
@@ -5256,7 +5592,7 @@
           <t>中证环保</t>
         </is>
       </c>
-      <c r="C14" s="140" t="n">
+      <c r="C14" s="116" t="n">
         <v>0.0317</v>
       </c>
     </row>
@@ -5269,7 +5605,7 @@
           <t>金融地产</t>
         </is>
       </c>
-      <c r="C15" s="141" t="n">
+      <c r="C15" s="201" t="n">
         <v>0.2132</v>
       </c>
     </row>
@@ -5282,7 +5618,7 @@
           <t>全指消费</t>
         </is>
       </c>
-      <c r="C16" s="32" t="n">
+      <c r="C16" s="202" t="n">
         <v>-0.0212</v>
       </c>
     </row>
@@ -5295,7 +5631,7 @@
           <t>恒生</t>
         </is>
       </c>
-      <c r="C17" s="142" t="n">
+      <c r="C17" s="96" t="n">
         <v>0.207</v>
       </c>
     </row>
@@ -5308,7 +5644,7 @@
           <t>台湾加权</t>
         </is>
       </c>
-      <c r="C18" s="64" t="n">
+      <c r="C18" s="203" t="n">
         <v>0.0887</v>
       </c>
     </row>
@@ -5321,7 +5657,7 @@
           <t>日经225</t>
         </is>
       </c>
-      <c r="C19" s="143" t="n">
+      <c r="C19" s="171" t="n">
         <v>0.2159</v>
       </c>
     </row>
@@ -5347,7 +5683,7 @@
           <t>富时100</t>
         </is>
       </c>
-      <c r="C21" s="144" t="n">
+      <c r="C21" s="39" t="n">
         <v>0.0583</v>
       </c>
     </row>
@@ -5360,7 +5696,7 @@
           <t>法国40</t>
         </is>
       </c>
-      <c r="C22" s="145" t="n">
+      <c r="C22" s="204" t="n">
         <v>0.1529</v>
       </c>
     </row>
@@ -5373,7 +5709,7 @@
           <t>道琼斯</t>
         </is>
       </c>
-      <c r="C23" s="146" t="n">
+      <c r="C23" s="43" t="n">
         <v>0.0717</v>
       </c>
     </row>
@@ -5386,7 +5722,7 @@
           <t>纳斯达克</t>
         </is>
       </c>
-      <c r="C24" s="147" t="n">
+      <c r="C24" s="205" t="n">
         <v>0.1363</v>
       </c>
     </row>
@@ -5399,7 +5735,7 @@
           <t>标普500</t>
         </is>
       </c>
-      <c r="C25" s="148" t="n">
+      <c r="C25" s="174" t="n">
         <v>0.1291</v>
       </c>
     </row>
@@ -5412,7 +5748,7 @@
           <t>可转债</t>
         </is>
       </c>
-      <c r="C26" s="149" t="n">
+      <c r="C26" s="27" t="n">
         <v>0.0351</v>
       </c>
     </row>
@@ -5425,7 +5761,7 @@
           <t>黄金</t>
         </is>
       </c>
-      <c r="C27" s="150" t="n">
+      <c r="C27" s="206" t="n">
         <v>0.067</v>
       </c>
     </row>
@@ -5438,7 +5774,7 @@
           <t>原油</t>
         </is>
       </c>
-      <c r="C28" s="29" t="n">
+      <c r="C28" s="4" t="n">
         <v>-0.0793</v>
       </c>
     </row>
@@ -5451,7 +5787,7 @@
           <t>白银</t>
         </is>
       </c>
-      <c r="C29" s="151" t="n">
+      <c r="C29" s="207" t="n">
         <v>0.0843</v>
       </c>
     </row>
@@ -5500,7 +5836,7 @@
           <t>上证50</t>
         </is>
       </c>
-      <c r="C2" s="83" t="n">
+      <c r="C2" s="89" t="n">
         <v>-0.165</v>
       </c>
     </row>
@@ -5513,7 +5849,7 @@
           <t>沪深300</t>
         </is>
       </c>
-      <c r="C3" s="90" t="n">
+      <c r="C3" s="208" t="n">
         <v>-0.08690000000000001</v>
       </c>
     </row>
@@ -5526,7 +5862,7 @@
           <t>300价值</t>
         </is>
       </c>
-      <c r="C4" s="86" t="n">
+      <c r="C4" s="209" t="n">
         <v>-0.1303</v>
       </c>
     </row>
@@ -5539,7 +5875,7 @@
           <t>基本面60</t>
         </is>
       </c>
-      <c r="C5" s="89" t="n">
+      <c r="C5" s="210" t="n">
         <v>-0.0944</v>
       </c>
     </row>
@@ -5552,7 +5888,7 @@
           <t>基本面120</t>
         </is>
       </c>
-      <c r="C6" s="85" t="n">
+      <c r="C6" s="211" t="n">
         <v>-0.0764</v>
       </c>
     </row>
@@ -5565,7 +5901,7 @@
           <t>中小板</t>
         </is>
       </c>
-      <c r="C7" s="27" t="n">
+      <c r="C7" s="18" t="n">
         <v>0.1708</v>
       </c>
     </row>
@@ -5578,7 +5914,7 @@
           <t>中证500</t>
         </is>
       </c>
-      <c r="C8" s="61" t="n">
+      <c r="C8" s="212" t="n">
         <v>0.1614</v>
       </c>
     </row>
@@ -5591,7 +5927,7 @@
           <t>中证1000</t>
         </is>
       </c>
-      <c r="C9" s="60" t="n">
+      <c r="C9" s="163" t="n">
         <v>0.308</v>
       </c>
     </row>
@@ -5617,7 +5953,7 @@
           <t>中证红利</t>
         </is>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="213" t="n">
         <v>-0.1125</v>
       </c>
     </row>
@@ -5630,7 +5966,7 @@
           <t>养老产业</t>
         </is>
       </c>
-      <c r="C12" s="21" t="n">
+      <c r="C12" s="55" t="n">
         <v>0.5016</v>
       </c>
     </row>
@@ -5643,7 +5979,7 @@
           <t>全指医药</t>
         </is>
       </c>
-      <c r="C13" s="23" t="n">
+      <c r="C13" s="214" t="n">
         <v>0.3444</v>
       </c>
     </row>
@@ -5656,7 +5992,7 @@
           <t>中证环保</t>
         </is>
       </c>
-      <c r="C14" s="43" t="n">
+      <c r="C14" s="163" t="n">
         <v>0.3072</v>
       </c>
     </row>
@@ -5669,7 +6005,7 @@
           <t>金融地产</t>
         </is>
       </c>
-      <c r="C15" s="88" t="n">
+      <c r="C15" s="61" t="n">
         <v>-0.1047</v>
       </c>
     </row>
@@ -5682,7 +6018,7 @@
           <t>全指消费</t>
         </is>
       </c>
-      <c r="C16" s="63" t="n">
+      <c r="C16" s="215" t="n">
         <v>0.008500000000000001</v>
       </c>
     </row>
@@ -5695,7 +6031,7 @@
           <t>恒生</t>
         </is>
       </c>
-      <c r="C17" s="22" t="n">
+      <c r="C17" s="24" t="n">
         <v>0.0195</v>
       </c>
     </row>
@@ -5708,7 +6044,7 @@
           <t>台湾加权</t>
         </is>
       </c>
-      <c r="C18" s="28" t="n">
+      <c r="C18" s="131" t="n">
         <v>0.1129</v>
       </c>
     </row>
@@ -5721,7 +6057,7 @@
           <t>日经225</t>
         </is>
       </c>
-      <c r="C19" s="58" t="n">
+      <c r="C19" s="216" t="n">
         <v>0.5363</v>
       </c>
     </row>
@@ -5734,7 +6070,7 @@
           <t>德国30</t>
         </is>
       </c>
-      <c r="C20" s="3" t="n">
+      <c r="C20" s="217" t="n">
         <v>0.2405</v>
       </c>
     </row>
@@ -5747,7 +6083,7 @@
           <t>富时100</t>
         </is>
       </c>
-      <c r="C21" s="62" t="n">
+      <c r="C21" s="73" t="n">
         <v>0.1443</v>
       </c>
     </row>
@@ -5760,7 +6096,7 @@
           <t>法国40</t>
         </is>
       </c>
-      <c r="C22" s="42" t="n">
+      <c r="C22" s="17" t="n">
         <v>0.1598</v>
       </c>
     </row>
@@ -5773,7 +6109,7 @@
           <t>道琼斯</t>
         </is>
       </c>
-      <c r="C23" s="24" t="n">
+      <c r="C23" s="165" t="n">
         <v>0.265</v>
       </c>
     </row>
@@ -5786,7 +6122,7 @@
           <t>纳斯达克</t>
         </is>
       </c>
-      <c r="C24" s="41" t="n">
+      <c r="C24" s="70" t="n">
         <v>0.3511</v>
       </c>
     </row>
@@ -5799,7 +6135,7 @@
           <t>标普500</t>
         </is>
       </c>
-      <c r="C25" s="59" t="n">
+      <c r="C25" s="13" t="n">
         <v>0.296</v>
       </c>
     </row>
@@ -5812,7 +6148,7 @@
           <t>可转债</t>
         </is>
       </c>
-      <c r="C26" s="6" t="n">
+      <c r="C26" s="10" t="n">
         <v>-0.0194</v>
       </c>
     </row>
@@ -5825,7 +6161,7 @@
           <t>黄金</t>
         </is>
       </c>
-      <c r="C27" s="81" t="n">
+      <c r="C27" s="218" t="n">
         <v>-0.2813</v>
       </c>
     </row>
@@ -5838,7 +6174,7 @@
           <t>原油</t>
         </is>
       </c>
-      <c r="C28" s="40" t="n">
+      <c r="C28" s="108" t="n">
         <v>0.07539999999999999</v>
       </c>
     </row>
@@ -5851,7 +6187,7 @@
           <t>白银</t>
         </is>
       </c>
-      <c r="C29" s="80" t="n">
+      <c r="C29" s="4" t="n">
         <v>-0.3604</v>
       </c>
     </row>
@@ -5900,7 +6236,7 @@
           <t>上证50</t>
         </is>
       </c>
-      <c r="C2" s="143" t="n">
+      <c r="C2" s="72" t="n">
         <v>0.6443</v>
       </c>
     </row>
@@ -5913,7 +6249,7 @@
           <t>沪深300</t>
         </is>
       </c>
-      <c r="C3" s="30" t="n">
+      <c r="C3" s="55" t="n">
         <v>0.5209</v>
       </c>
     </row>
@@ -5926,7 +6262,7 @@
           <t>300价值</t>
         </is>
       </c>
-      <c r="C4" s="152" t="n">
+      <c r="C4" s="219" t="n">
         <v>0.6408</v>
       </c>
     </row>
@@ -5939,7 +6275,7 @@
           <t>基本面60</t>
         </is>
       </c>
-      <c r="C5" s="41" t="n">
+      <c r="C5" s="220" t="n">
         <v>0.5429</v>
       </c>
     </row>
@@ -5952,7 +6288,7 @@
           <t>基本面120</t>
         </is>
       </c>
-      <c r="C6" s="153" t="n">
+      <c r="C6" s="14" t="n">
         <v>0.5268</v>
       </c>
     </row>
@@ -5965,7 +6301,7 @@
           <t>中小板</t>
         </is>
       </c>
-      <c r="C7" s="154" t="n">
+      <c r="C7" s="105" t="n">
         <v>0.09760000000000001</v>
       </c>
     </row>
@@ -5978,7 +6314,7 @@
           <t>中证500</t>
         </is>
       </c>
-      <c r="C8" s="43" t="n">
+      <c r="C8" s="221" t="n">
         <v>0.3922</v>
       </c>
     </row>
@@ -5991,7 +6327,7 @@
           <t>中证1000</t>
         </is>
       </c>
-      <c r="C9" s="36" t="n">
+      <c r="C9" s="64" t="n">
         <v>0.3461</v>
       </c>
     </row>
@@ -6004,7 +6340,7 @@
           <t>创业板</t>
         </is>
       </c>
-      <c r="C10" s="155" t="n">
+      <c r="C10" s="222" t="n">
         <v>0.1301</v>
       </c>
     </row>
@@ -6017,7 +6353,7 @@
           <t>中证红利</t>
         </is>
       </c>
-      <c r="C11" s="156" t="n">
+      <c r="C11" s="55" t="n">
         <v>0.5207000000000001</v>
       </c>
     </row>
@@ -6030,7 +6366,7 @@
           <t>养老产业</t>
         </is>
       </c>
-      <c r="C12" s="157" t="n">
+      <c r="C12" s="109" t="n">
         <v>0.2032</v>
       </c>
     </row>
@@ -6043,7 +6379,7 @@
           <t>全指医药</t>
         </is>
       </c>
-      <c r="C13" s="39" t="n">
+      <c r="C13" s="117" t="n">
         <v>0.1264</v>
       </c>
     </row>
@@ -6056,7 +6392,7 @@
           <t>中证环保</t>
         </is>
       </c>
-      <c r="C14" s="158" t="n">
+      <c r="C14" s="68" t="n">
         <v>0.2875</v>
       </c>
     </row>
@@ -6069,7 +6405,7 @@
           <t>中证传媒</t>
         </is>
       </c>
-      <c r="C15" s="37" t="n">
+      <c r="C15" s="142" t="n">
         <v>0.0335</v>
       </c>
     </row>
@@ -6095,7 +6431,7 @@
           <t>全指消费</t>
         </is>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C17" s="18" t="n">
         <v>0.1742</v>
       </c>
     </row>
@@ -6108,7 +6444,7 @@
           <t>恒生</t>
         </is>
       </c>
-      <c r="C18" s="137" t="n">
+      <c r="C18" s="215" t="n">
         <v>0.0065</v>
       </c>
     </row>
@@ -6121,7 +6457,7 @@
           <t>台湾加权</t>
         </is>
       </c>
-      <c r="C19" s="159" t="n">
+      <c r="C19" s="108" t="n">
         <v>0.0799</v>
       </c>
     </row>
@@ -6134,7 +6470,7 @@
           <t>日经225</t>
         </is>
       </c>
-      <c r="C20" s="34" t="n">
+      <c r="C20" s="223" t="n">
         <v>0.08069999999999999</v>
       </c>
     </row>
@@ -6147,7 +6483,7 @@
           <t>德国30</t>
         </is>
       </c>
-      <c r="C21" s="160" t="n">
+      <c r="C21" s="24" t="n">
         <v>0.0216</v>
       </c>
     </row>
@@ -6160,7 +6496,7 @@
           <t>富时100</t>
         </is>
       </c>
-      <c r="C22" s="88" t="n">
+      <c r="C22" s="224" t="n">
         <v>-0.0271</v>
       </c>
     </row>
@@ -6173,7 +6509,7 @@
           <t>法国40</t>
         </is>
       </c>
-      <c r="C23" s="6" t="n">
+      <c r="C23" s="225" t="n">
         <v>-0.008399999999999999</v>
       </c>
     </row>
@@ -6186,7 +6522,7 @@
           <t>道琼斯</t>
         </is>
       </c>
-      <c r="C24" s="40" t="n">
+      <c r="C24" s="108" t="n">
         <v>0.0755</v>
       </c>
     </row>
@@ -6199,7 +6535,7 @@
           <t>纳斯达克</t>
         </is>
       </c>
-      <c r="C25" s="161" t="n">
+      <c r="C25" s="129" t="n">
         <v>0.1385</v>
       </c>
     </row>
@@ -6212,7 +6548,7 @@
           <t>标普500</t>
         </is>
       </c>
-      <c r="C26" s="42" t="n">
+      <c r="C26" s="131" t="n">
         <v>0.1154</v>
       </c>
     </row>
@@ -6225,7 +6561,7 @@
           <t>可转债</t>
         </is>
       </c>
-      <c r="C27" s="38" t="n">
+      <c r="C27" s="23" t="n">
         <v>0.5722</v>
       </c>
     </row>
@@ -6238,7 +6574,7 @@
           <t>黄金</t>
         </is>
       </c>
-      <c r="C28" s="90" t="n">
+      <c r="C28" s="226" t="n">
         <v>-0.0177</v>
       </c>
     </row>
@@ -6251,7 +6587,7 @@
           <t>原油</t>
         </is>
       </c>
-      <c r="C29" s="81" t="n">
+      <c r="C29" s="4" t="n">
         <v>-0.4547</v>
       </c>
     </row>
@@ -6264,7 +6600,7 @@
           <t>白银</t>
         </is>
       </c>
-      <c r="C30" s="86" t="n">
+      <c r="C30" s="227" t="n">
         <v>-0.1932</v>
       </c>
     </row>
@@ -6313,7 +6649,7 @@
           <t>上证50</t>
         </is>
       </c>
-      <c r="C2" s="9" t="n">
+      <c r="C2" s="228" t="n">
         <v>-0.0735</v>
       </c>
     </row>
@@ -6326,7 +6662,7 @@
           <t>沪深300</t>
         </is>
       </c>
-      <c r="C3" s="22" t="n">
+      <c r="C3" s="104" t="n">
         <v>0.0462</v>
       </c>
     </row>
@@ -6339,7 +6675,7 @@
           <t>300价值</t>
         </is>
       </c>
-      <c r="C4" s="63" t="n">
+      <c r="C4" s="130" t="n">
         <v>0.0346</v>
       </c>
     </row>
@@ -6352,7 +6688,7 @@
           <t>基本面60</t>
         </is>
       </c>
-      <c r="C5" s="61" t="n">
+      <c r="C5" s="17" t="n">
         <v>0.1639</v>
       </c>
     </row>
@@ -6365,7 +6701,7 @@
           <t>基本面120</t>
         </is>
       </c>
-      <c r="C6" s="27" t="n">
+      <c r="C6" s="206" t="n">
         <v>0.1945</v>
       </c>
     </row>
@@ -6378,7 +6714,7 @@
           <t>中小板</t>
         </is>
       </c>
-      <c r="C7" s="41" t="n">
+      <c r="C7" s="135" t="n">
         <v>0.5328000000000001</v>
       </c>
     </row>
@@ -6391,7 +6727,7 @@
           <t>中证500</t>
         </is>
       </c>
-      <c r="C8" s="43" t="n">
+      <c r="C8" s="54" t="n">
         <v>0.4269</v>
       </c>
     </row>
@@ -6404,7 +6740,7 @@
           <t>中证1000</t>
         </is>
       </c>
-      <c r="C9" s="58" t="n">
+      <c r="C9" s="139" t="n">
         <v>0.7615</v>
       </c>
     </row>
@@ -6430,7 +6766,7 @@
           <t>中证红利</t>
         </is>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="67" t="n">
         <v>0.2606</v>
       </c>
     </row>
@@ -6443,7 +6779,7 @@
           <t>养老产业</t>
         </is>
       </c>
-      <c r="C12" s="60" t="n">
+      <c r="C12" s="229" t="n">
         <v>0.4914</v>
       </c>
     </row>
@@ -6456,7 +6792,7 @@
           <t>全指医药</t>
         </is>
       </c>
-      <c r="C13" s="23" t="n">
+      <c r="C13" s="166" t="n">
         <v>0.5038</v>
       </c>
     </row>
@@ -6469,7 +6805,7 @@
           <t>中证环保</t>
         </is>
       </c>
-      <c r="C14" s="59" t="n">
+      <c r="C14" s="221" t="n">
         <v>0.3918</v>
       </c>
     </row>
@@ -6482,7 +6818,7 @@
           <t>中证传媒</t>
         </is>
       </c>
-      <c r="C15" s="21" t="n">
+      <c r="C15" s="230" t="n">
         <v>0.6919</v>
       </c>
     </row>
@@ -6495,7 +6831,7 @@
           <t>证券公司</t>
         </is>
       </c>
-      <c r="C16" s="162" t="n">
+      <c r="C16" s="4" t="n">
         <v>-0.3161</v>
       </c>
     </row>
@@ -6508,7 +6844,7 @@
           <t>金融地产</t>
         </is>
       </c>
-      <c r="C17" s="163" t="n">
+      <c r="C17" s="16" t="n">
         <v>-0.0367</v>
       </c>
     </row>
@@ -6521,7 +6857,7 @@
           <t>全指消费</t>
         </is>
       </c>
-      <c r="C18" s="24" t="n">
+      <c r="C18" s="25" t="n">
         <v>0.3404</v>
       </c>
     </row>
@@ -6534,7 +6870,7 @@
           <t>恒生</t>
         </is>
       </c>
-      <c r="C19" s="164" t="n">
+      <c r="C19" s="208" t="n">
         <v>-0.0747</v>
       </c>
     </row>
@@ -6547,7 +6883,7 @@
           <t>台湾加权</t>
         </is>
       </c>
-      <c r="C20" s="5" t="n">
+      <c r="C20" s="231" t="n">
         <v>-0.1009</v>
       </c>
     </row>
@@ -6560,7 +6896,7 @@
           <t>日经225</t>
         </is>
       </c>
-      <c r="C21" s="42" t="n">
+      <c r="C21" s="27" t="n">
         <v>0.09859999999999999</v>
       </c>
     </row>
@@ -6573,7 +6909,7 @@
           <t>德国30</t>
         </is>
       </c>
-      <c r="C22" s="62" t="n">
+      <c r="C22" s="143" t="n">
         <v>0.0885</v>
       </c>
     </row>
@@ -6586,7 +6922,7 @@
           <t>富时100</t>
         </is>
       </c>
-      <c r="C23" s="7" t="n">
+      <c r="C23" s="177" t="n">
         <v>-0.0493</v>
       </c>
     </row>
@@ -6599,7 +6935,7 @@
           <t>法国40</t>
         </is>
       </c>
-      <c r="C24" s="28" t="n">
+      <c r="C24" s="108" t="n">
         <v>0.0799</v>
       </c>
     </row>
@@ -6612,7 +6948,7 @@
           <t>道琼斯</t>
         </is>
       </c>
-      <c r="C25" s="165" t="n">
+      <c r="C25" s="189" t="n">
         <v>-0.0223</v>
       </c>
     </row>
@@ -6625,7 +6961,7 @@
           <t>纳斯达克</t>
         </is>
       </c>
-      <c r="C26" s="40" t="n">
+      <c r="C26" s="232" t="n">
         <v>0.0519</v>
       </c>
     </row>
@@ -6638,7 +6974,7 @@
           <t>标普500</t>
         </is>
       </c>
-      <c r="C27" s="6" t="n">
+      <c r="C27" s="233" t="n">
         <v>-0.0073</v>
       </c>
     </row>
@@ -6651,7 +6987,7 @@
           <t>可转债</t>
         </is>
       </c>
-      <c r="C28" s="4" t="n">
+      <c r="C28" s="234" t="n">
         <v>-0.274</v>
       </c>
     </row>
@@ -6664,7 +7000,7 @@
           <t>黄金</t>
         </is>
       </c>
-      <c r="C29" s="166" t="n">
+      <c r="C29" s="235" t="n">
         <v>-0.1055</v>
       </c>
     </row>
@@ -6677,7 +7013,7 @@
           <t>原油</t>
         </is>
       </c>
-      <c r="C30" s="167" t="n">
+      <c r="C30" s="146" t="n">
         <v>-0.3122</v>
       </c>
     </row>
@@ -6690,7 +7026,7 @@
           <t>白银</t>
         </is>
       </c>
-      <c r="C31" s="14" t="n">
+      <c r="C31" s="236" t="n">
         <v>-0.1261</v>
       </c>
     </row>
@@ -6739,7 +7075,7 @@
           <t>上证50</t>
         </is>
       </c>
-      <c r="C2" s="168" t="n">
+      <c r="C2" s="76" t="n">
         <v>-0.0538</v>
       </c>
     </row>
@@ -6752,7 +7088,7 @@
           <t>50AH</t>
         </is>
       </c>
-      <c r="C3" s="99" t="n">
+      <c r="C3" s="24" t="n">
         <v>0.0111</v>
       </c>
     </row>
@@ -6765,7 +7101,7 @@
           <t>沪深300</t>
         </is>
       </c>
-      <c r="C4" s="112" t="n">
+      <c r="C4" s="237" t="n">
         <v>-0.1116</v>
       </c>
     </row>
@@ -6778,7 +7114,7 @@
           <t>300价值</t>
         </is>
       </c>
-      <c r="C5" s="169" t="n">
+      <c r="C5" s="7" t="n">
         <v>-0.0448</v>
       </c>
     </row>
@@ -6791,7 +7127,7 @@
           <t>基本面60</t>
         </is>
       </c>
-      <c r="C6" s="170" t="n">
+      <c r="C6" s="238" t="n">
         <v>-0.0308</v>
       </c>
     </row>
@@ -6804,7 +7140,7 @@
           <t>基本面120</t>
         </is>
       </c>
-      <c r="C7" s="35" t="n">
+      <c r="C7" s="177" t="n">
         <v>-0.0491</v>
       </c>
     </row>
@@ -6817,7 +7153,7 @@
           <t>中小板</t>
         </is>
       </c>
-      <c r="C8" s="29" t="n">
+      <c r="C8" s="239" t="n">
         <v>-0.2281</v>
       </c>
     </row>
@@ -6830,7 +7166,7 @@
           <t>中证500</t>
         </is>
       </c>
-      <c r="C9" s="113" t="n">
+      <c r="C9" s="240" t="n">
         <v>-0.1775</v>
       </c>
     </row>
@@ -6843,7 +7179,7 @@
           <t>中证1000</t>
         </is>
       </c>
-      <c r="C10" s="171" t="n">
+      <c r="C10" s="51" t="n">
         <v>-0.1988</v>
       </c>
     </row>
@@ -6856,7 +7192,7 @@
           <t>创业板</t>
         </is>
       </c>
-      <c r="C11" s="172" t="n">
+      <c r="C11" s="241" t="n">
         <v>-0.275</v>
       </c>
     </row>
@@ -6869,7 +7205,7 @@
           <t>中证红利</t>
         </is>
       </c>
-      <c r="C12" s="173" t="n">
+      <c r="C12" s="228" t="n">
         <v>-0.075</v>
       </c>
     </row>
@@ -6882,7 +7218,7 @@
           <t>养老产业</t>
         </is>
       </c>
-      <c r="C13" s="174" t="n">
+      <c r="C13" s="155" t="n">
         <v>-0.2034</v>
       </c>
     </row>
@@ -6895,7 +7231,7 @@
           <t>全指医药</t>
         </is>
       </c>
-      <c r="C14" s="32" t="n">
+      <c r="C14" s="242" t="n">
         <v>-0.1402</v>
       </c>
     </row>
@@ -6908,7 +7244,7 @@
           <t>中证环保</t>
         </is>
       </c>
-      <c r="C15" s="175" t="n">
+      <c r="C15" s="95" t="n">
         <v>-0.1713</v>
       </c>
     </row>
@@ -6921,7 +7257,7 @@
           <t>中证传媒</t>
         </is>
       </c>
-      <c r="C16" s="176" t="n">
+      <c r="C16" s="4" t="n">
         <v>-0.3213</v>
       </c>
     </row>
@@ -6934,7 +7270,7 @@
           <t>证券公司</t>
         </is>
       </c>
-      <c r="C17" s="33" t="n">
+      <c r="C17" s="157" t="n">
         <v>-0.1833</v>
       </c>
     </row>
@@ -6947,7 +7283,7 @@
           <t>金融地产</t>
         </is>
       </c>
-      <c r="C18" s="31" t="n">
+      <c r="C18" s="237" t="n">
         <v>-0.1115</v>
       </c>
     </row>
@@ -6960,7 +7296,7 @@
           <t>全指消费</t>
         </is>
       </c>
-      <c r="C19" s="6" t="n">
+      <c r="C19" s="36" t="n">
         <v>-0.0161</v>
       </c>
     </row>
@@ -6973,7 +7309,7 @@
           <t>恒生</t>
         </is>
       </c>
-      <c r="C20" s="105" t="n">
+      <c r="C20" s="24" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -6986,7 +7322,7 @@
           <t>台湾加权</t>
         </is>
       </c>
-      <c r="C21" s="104" t="n">
+      <c r="C21" s="173" t="n">
         <v>0.1128</v>
       </c>
     </row>
@@ -6999,7 +7335,7 @@
           <t>日经225</t>
         </is>
       </c>
-      <c r="C22" s="107" t="n">
+      <c r="C22" s="142" t="n">
         <v>0.0157</v>
       </c>
     </row>
@@ -7012,7 +7348,7 @@
           <t>德国30</t>
         </is>
       </c>
-      <c r="C23" s="108" t="n">
+      <c r="C23" s="107" t="n">
         <v>0.0949</v>
       </c>
     </row>
@@ -7025,7 +7361,7 @@
           <t>富时100</t>
         </is>
       </c>
-      <c r="C24" s="95" t="n">
+      <c r="C24" s="243" t="n">
         <v>0.1443</v>
       </c>
     </row>
@@ -7038,7 +7374,7 @@
           <t>法国40</t>
         </is>
       </c>
-      <c r="C25" s="106" t="n">
+      <c r="C25" s="116" t="n">
         <v>0.0486</v>
       </c>
     </row>
@@ -7051,7 +7387,7 @@
           <t>道琼斯</t>
         </is>
       </c>
-      <c r="C26" s="109" t="n">
+      <c r="C26" s="244" t="n">
         <v>0.1354</v>
       </c>
     </row>
@@ -7064,7 +7400,7 @@
           <t>纳斯达克</t>
         </is>
       </c>
-      <c r="C27" s="111" t="n">
+      <c r="C27" s="71" t="n">
         <v>0.09909999999999999</v>
       </c>
     </row>
@@ -7077,7 +7413,7 @@
           <t>标普500</t>
         </is>
       </c>
-      <c r="C28" s="110" t="n">
+      <c r="C28" s="71" t="n">
         <v>0.0984</v>
       </c>
     </row>
@@ -7090,7 +7426,7 @@
           <t>可转债</t>
         </is>
       </c>
-      <c r="C29" s="177" t="n">
+      <c r="C29" s="113" t="n">
         <v>-0.1185</v>
       </c>
     </row>
@@ -7103,7 +7439,7 @@
           <t>黄金</t>
         </is>
       </c>
-      <c r="C30" s="102" t="n">
+      <c r="C30" s="212" t="n">
         <v>0.0853</v>
       </c>
     </row>
@@ -7129,7 +7465,7 @@
           <t>白银</t>
         </is>
       </c>
-      <c r="C32" s="103" t="n">
+      <c r="C32" s="69" t="n">
         <v>0.1553</v>
       </c>
     </row>
@@ -7178,7 +7514,7 @@
           <t>上证50</t>
         </is>
       </c>
-      <c r="C2" s="30" t="n">
+      <c r="C2" s="245" t="n">
         <v>0.2517</v>
       </c>
     </row>
@@ -7191,7 +7527,7 @@
           <t>50AH</t>
         </is>
       </c>
-      <c r="C3" s="36" t="n">
+      <c r="C3" s="40" t="n">
         <v>0.209</v>
       </c>
     </row>
@@ -7204,7 +7540,7 @@
           <t>沪深300</t>
         </is>
       </c>
-      <c r="C4" s="43" t="n">
+      <c r="C4" s="204" t="n">
         <v>0.2163</v>
       </c>
     </row>
@@ -7217,7 +7553,7 @@
           <t>300价值</t>
         </is>
       </c>
-      <c r="C5" s="38" t="n">
+      <c r="C5" s="162" t="n">
         <v>0.3226</v>
       </c>
     </row>
@@ -7243,7 +7579,7 @@
           <t>基本面120</t>
         </is>
       </c>
-      <c r="C7" s="152" t="n">
+      <c r="C7" s="230" t="n">
         <v>0.3393</v>
       </c>
     </row>
@@ -7256,7 +7592,7 @@
           <t>中小板</t>
         </is>
       </c>
-      <c r="C8" s="161" t="n">
+      <c r="C8" s="246" t="n">
         <v>0.1637</v>
       </c>
     </row>
@@ -7269,7 +7605,7 @@
           <t>中证500</t>
         </is>
       </c>
-      <c r="C9" s="178" t="n">
+      <c r="C9" s="6" t="n">
         <v>-0.0037</v>
       </c>
     </row>
@@ -7282,7 +7618,7 @@
           <t>中证1000</t>
         </is>
       </c>
-      <c r="C10" s="179" t="n">
+      <c r="C10" s="247" t="n">
         <v>-0.1748</v>
       </c>
     </row>
@@ -7295,7 +7631,7 @@
           <t>创业板</t>
         </is>
       </c>
-      <c r="C11" s="180" t="n">
+      <c r="C11" s="75" t="n">
         <v>-0.1081</v>
       </c>
     </row>
@@ -7308,7 +7644,7 @@
           <t>中证红利</t>
         </is>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="248" t="n">
         <v>0.1744</v>
       </c>
     </row>
@@ -7321,7 +7657,7 @@
           <t>养老产业</t>
         </is>
       </c>
-      <c r="C13" s="40" t="n">
+      <c r="C13" s="39" t="n">
         <v>0.0832</v>
       </c>
     </row>
@@ -7334,7 +7670,7 @@
           <t>全指医药</t>
         </is>
       </c>
-      <c r="C14" s="137" t="n">
+      <c r="C14" s="27" t="n">
         <v>0.0488</v>
       </c>
     </row>
@@ -7347,7 +7683,7 @@
           <t>中证环保</t>
         </is>
       </c>
-      <c r="C15" s="181" t="n">
+      <c r="C15" s="249" t="n">
         <v>-0.0115</v>
       </c>
     </row>
@@ -7360,7 +7696,7 @@
           <t>中证传媒</t>
         </is>
       </c>
-      <c r="C16" s="182" t="n">
+      <c r="C16" s="4" t="n">
         <v>-0.1785</v>
       </c>
     </row>
@@ -7373,7 +7709,7 @@
           <t>证券公司</t>
         </is>
       </c>
-      <c r="C17" s="183" t="n">
+      <c r="C17" s="250" t="n">
         <v>-0.1242</v>
       </c>
     </row>
@@ -7386,7 +7722,7 @@
           <t>金融地产</t>
         </is>
       </c>
-      <c r="C18" s="39" t="n">
+      <c r="C18" s="251" t="n">
         <v>0.1436</v>
       </c>
     </row>
@@ -7399,7 +7735,7 @@
           <t>全指消费</t>
         </is>
       </c>
-      <c r="C19" s="41" t="n">
+      <c r="C19" s="47" t="n">
         <v>0.2902</v>
       </c>
     </row>
@@ -7412,7 +7748,7 @@
           <t>恒生</t>
         </is>
       </c>
-      <c r="C20" s="143" t="n">
+      <c r="C20" s="252" t="n">
         <v>0.3604</v>
       </c>
     </row>
@@ -7425,7 +7761,7 @@
           <t>台湾加权</t>
         </is>
       </c>
-      <c r="C21" s="155" t="n">
+      <c r="C21" s="13" t="n">
         <v>0.1503</v>
       </c>
     </row>
@@ -7438,7 +7774,7 @@
           <t>日经225</t>
         </is>
       </c>
-      <c r="C22" s="157" t="n">
+      <c r="C22" s="57" t="n">
         <v>0.1796</v>
       </c>
     </row>
@@ -7451,7 +7787,7 @@
           <t>德国30</t>
         </is>
       </c>
-      <c r="C23" s="154" t="n">
+      <c r="C23" s="253" t="n">
         <v>0.1305</v>
       </c>
     </row>
@@ -7464,7 +7800,7 @@
           <t>富时100</t>
         </is>
       </c>
-      <c r="C24" s="37" t="n">
+      <c r="C24" s="254" t="n">
         <v>0.07630000000000001</v>
       </c>
     </row>
@@ -7477,7 +7813,7 @@
           <t>法国40</t>
         </is>
       </c>
-      <c r="C25" s="159" t="n">
+      <c r="C25" s="193" t="n">
         <v>0.0963</v>
       </c>
     </row>
@@ -7490,7 +7826,7 @@
           <t>道琼斯</t>
         </is>
       </c>
-      <c r="C26" s="156" t="n">
+      <c r="C26" s="255" t="n">
         <v>0.2439</v>
       </c>
     </row>
@@ -7503,7 +7839,7 @@
           <t>纳斯达克</t>
         </is>
       </c>
-      <c r="C27" s="153" t="n">
+      <c r="C27" s="256" t="n">
         <v>0.2724</v>
       </c>
     </row>
@@ -7516,7 +7852,7 @@
           <t>标普500</t>
         </is>
       </c>
-      <c r="C28" s="158" t="n">
+      <c r="C28" s="257" t="n">
         <v>0.1884</v>
       </c>
     </row>
@@ -7529,7 +7865,7 @@
           <t>可转债</t>
         </is>
       </c>
-      <c r="C29" s="6" t="n">
+      <c r="C29" s="258" t="n">
         <v>-0.0016</v>
       </c>
     </row>
@@ -7542,7 +7878,7 @@
           <t>黄金</t>
         </is>
       </c>
-      <c r="C30" s="42" t="n">
+      <c r="C30" s="165" t="n">
         <v>0.1335</v>
       </c>
     </row>
@@ -7555,7 +7891,7 @@
           <t>原油</t>
         </is>
       </c>
-      <c r="C31" s="34" t="n">
+      <c r="C31" s="110" t="n">
         <v>0.1089</v>
       </c>
     </row>
@@ -7568,7 +7904,7 @@
           <t>白银</t>
         </is>
       </c>
-      <c r="C32" s="160" t="n">
+      <c r="C32" s="222" t="n">
         <v>0.0636</v>
       </c>
     </row>
@@ -7617,7 +7953,7 @@
           <t>上证50</t>
         </is>
       </c>
-      <c r="C2" s="184" t="n">
+      <c r="C2" s="259" t="n">
         <v>-0.2003</v>
       </c>
     </row>
@@ -7630,7 +7966,7 @@
           <t>50AH</t>
         </is>
       </c>
-      <c r="C3" s="185" t="n">
+      <c r="C3" s="260" t="n">
         <v>-0.1594</v>
       </c>
     </row>
@@ -7643,7 +7979,7 @@
           <t>沪深300</t>
         </is>
       </c>
-      <c r="C4" s="186" t="n">
+      <c r="C4" s="169" t="n">
         <v>-0.2557</v>
       </c>
     </row>
@@ -7656,7 +7992,7 @@
           <t>300价值</t>
         </is>
       </c>
-      <c r="C5" s="187" t="n">
+      <c r="C5" s="261" t="n">
         <v>-0.1934</v>
       </c>
     </row>
@@ -7669,7 +8005,7 @@
           <t>基本面60</t>
         </is>
       </c>
-      <c r="C6" s="188" t="n">
+      <c r="C6" s="262" t="n">
         <v>-0.2567</v>
       </c>
     </row>
@@ -7682,7 +8018,7 @@
           <t>基本面120</t>
         </is>
       </c>
-      <c r="C7" s="189" t="n">
+      <c r="C7" s="152" t="n">
         <v>-0.2802</v>
       </c>
     </row>
@@ -7695,7 +8031,7 @@
           <t>中小板</t>
         </is>
       </c>
-      <c r="C8" s="190" t="n">
+      <c r="C8" s="182" t="n">
         <v>-0.3793</v>
       </c>
     </row>
@@ -7708,7 +8044,7 @@
           <t>中证500</t>
         </is>
       </c>
-      <c r="C9" s="191" t="n">
+      <c r="C9" s="84" t="n">
         <v>-0.3345</v>
       </c>
     </row>
@@ -7721,7 +8057,7 @@
           <t>中证1000</t>
         </is>
       </c>
-      <c r="C10" s="56" t="n">
+      <c r="C10" s="263" t="n">
         <v>-0.3696</v>
       </c>
     </row>
@@ -7734,7 +8070,7 @@
           <t>创业板</t>
         </is>
       </c>
-      <c r="C11" s="192" t="n">
+      <c r="C11" s="264" t="n">
         <v>-0.2891</v>
       </c>
     </row>
@@ -7747,7 +8083,7 @@
           <t>中证红利</t>
         </is>
       </c>
-      <c r="C12" s="193" t="n">
+      <c r="C12" s="87" t="n">
         <v>-0.1947</v>
       </c>
     </row>
@@ -7760,7 +8096,7 @@
           <t>养老产业</t>
         </is>
       </c>
-      <c r="C13" s="53" t="n">
+      <c r="C13" s="265" t="n">
         <v>-0.2844</v>
       </c>
     </row>
@@ -7773,7 +8109,7 @@
           <t>全指医药</t>
         </is>
       </c>
-      <c r="C14" s="194" t="n">
+      <c r="C14" s="266" t="n">
         <v>-0.2647</v>
       </c>
     </row>
@@ -7786,7 +8122,7 @@
           <t>中证环保</t>
         </is>
       </c>
-      <c r="C15" s="195" t="n">
+      <c r="C15" s="4" t="n">
         <v>-0.3914</v>
       </c>
     </row>
@@ -7799,7 +8135,7 @@
           <t>中证传媒</t>
         </is>
       </c>
-      <c r="C16" s="196" t="n">
+      <c r="C16" s="263" t="n">
         <v>-0.3703</v>
       </c>
     </row>
@@ -7812,7 +8148,7 @@
           <t>证券公司</t>
         </is>
       </c>
-      <c r="C17" s="197" t="n">
+      <c r="C17" s="267" t="n">
         <v>-0.2638</v>
       </c>
     </row>
@@ -7825,7 +8161,7 @@
           <t>金融地产</t>
         </is>
       </c>
-      <c r="C18" s="123" t="n">
+      <c r="C18" s="91" t="n">
         <v>-0.2183</v>
       </c>
     </row>
@@ -7838,7 +8174,7 @@
           <t>全指消费</t>
         </is>
       </c>
-      <c r="C19" s="82" t="n">
+      <c r="C19" s="172" t="n">
         <v>-0.2204</v>
       </c>
     </row>
@@ -7851,7 +8187,7 @@
           <t>恒生</t>
         </is>
       </c>
-      <c r="C20" s="198" t="n">
+      <c r="C20" s="268" t="n">
         <v>-0.1393</v>
       </c>
     </row>
@@ -7864,7 +8200,7 @@
           <t>台湾加权</t>
         </is>
       </c>
-      <c r="C21" s="199" t="n">
+      <c r="C21" s="80" t="n">
         <v>-0.0883</v>
       </c>
     </row>
@@ -7877,7 +8213,7 @@
           <t>日经225</t>
         </is>
       </c>
-      <c r="C22" s="200" t="n">
+      <c r="C22" s="269" t="n">
         <v>-0.1326</v>
       </c>
     </row>
@@ -7890,7 +8226,7 @@
           <t>德国30</t>
         </is>
       </c>
-      <c r="C23" s="112" t="n">
+      <c r="C23" s="270" t="n">
         <v>-0.1813</v>
       </c>
     </row>
@@ -7903,7 +8239,7 @@
           <t>富时100</t>
         </is>
       </c>
-      <c r="C24" s="128" t="n">
+      <c r="C24" s="231" t="n">
         <v>-0.1248</v>
       </c>
     </row>
@@ -7916,7 +8252,7 @@
           <t>法国40</t>
         </is>
       </c>
-      <c r="C25" s="201" t="n">
+      <c r="C25" s="271" t="n">
         <v>-0.1105</v>
       </c>
     </row>
@@ -7929,7 +8265,7 @@
           <t>道琼斯</t>
         </is>
       </c>
-      <c r="C26" s="202" t="n">
+      <c r="C26" s="177" t="n">
         <v>-0.0605</v>
       </c>
     </row>
@@ -7942,7 +8278,7 @@
           <t>纳斯达克</t>
         </is>
       </c>
-      <c r="C27" s="203" t="n">
+      <c r="C27" s="272" t="n">
         <v>-0.0435</v>
       </c>
     </row>
@@ -7955,7 +8291,7 @@
           <t>标普500</t>
         </is>
       </c>
-      <c r="C28" s="124" t="n">
+      <c r="C28" s="76" t="n">
         <v>-0.0663</v>
       </c>
     </row>
@@ -7968,7 +8304,7 @@
           <t>可转债</t>
         </is>
       </c>
-      <c r="C29" s="204" t="n">
+      <c r="C29" s="78" t="n">
         <v>-0.0132</v>
       </c>
     </row>
@@ -7981,7 +8317,7 @@
           <t>黄金</t>
         </is>
       </c>
-      <c r="C30" s="6" t="n">
+      <c r="C30" s="233" t="n">
         <v>-0.009900000000000001</v>
       </c>
     </row>
@@ -7994,7 +8330,7 @@
           <t>原油</t>
         </is>
       </c>
-      <c r="C31" s="205" t="n">
+      <c r="C31" s="75" t="n">
         <v>-0.2354</v>
       </c>
     </row>
@@ -8007,7 +8343,7 @@
           <t>白银</t>
         </is>
       </c>
-      <c r="C32" s="206" t="n">
+      <c r="C32" s="59" t="n">
         <v>-0.0796</v>
       </c>
     </row>
@@ -8069,7 +8405,7 @@
           <t>台湾加权</t>
         </is>
       </c>
-      <c r="C3" s="14" t="n">
+      <c r="C3" s="4" t="n">
         <v>-0.3225</v>
       </c>
     </row>
@@ -8082,7 +8418,7 @@
           <t>日经225</t>
         </is>
       </c>
-      <c r="C4" s="9" t="n">
+      <c r="C4" s="15" t="n">
         <v>-0.2651</v>
       </c>
     </row>
@@ -8095,7 +8431,7 @@
           <t>德国30</t>
         </is>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="16" t="n">
         <v>-0.0374</v>
       </c>
     </row>
@@ -8108,7 +8444,7 @@
           <t>富时100</t>
         </is>
       </c>
-      <c r="C6" s="15" t="n">
+      <c r="C6" s="17" t="n">
         <v>0.054</v>
       </c>
     </row>
@@ -8121,7 +8457,7 @@
           <t>法国40</t>
         </is>
       </c>
-      <c r="C7" s="16" t="n">
+      <c r="C7" s="18" t="n">
         <v>0.0584</v>
       </c>
     </row>
@@ -8134,7 +8470,7 @@
           <t>道琼斯</t>
         </is>
       </c>
-      <c r="C8" s="17" t="n">
+      <c r="C8" s="19" t="n">
         <v>0.0417</v>
       </c>
     </row>
@@ -8147,7 +8483,7 @@
           <t>纳斯达克</t>
         </is>
       </c>
-      <c r="C9" s="18" t="n">
+      <c r="C9" s="20" t="n">
         <v>0.1586</v>
       </c>
     </row>
@@ -8160,7 +8496,7 @@
           <t>标普500</t>
         </is>
       </c>
-      <c r="C10" s="19" t="n">
+      <c r="C10" s="21" t="n">
         <v>0.0448</v>
       </c>
     </row>
@@ -8173,7 +8509,7 @@
           <t>原油</t>
         </is>
       </c>
-      <c r="C11" s="20" t="n">
+      <c r="C11" s="22" t="n">
         <v>0.0204</v>
       </c>
     </row>
@@ -8222,7 +8558,7 @@
           <t>上证50</t>
         </is>
       </c>
-      <c r="C2" s="134" t="n">
+      <c r="C2" s="273" t="n">
         <v>0.3199</v>
       </c>
     </row>
@@ -8235,7 +8571,7 @@
           <t>50AH</t>
         </is>
       </c>
-      <c r="C3" s="207" t="n">
+      <c r="C3" s="257" t="n">
         <v>0.2804</v>
       </c>
     </row>
@@ -8248,7 +8584,7 @@
           <t>沪深300</t>
         </is>
       </c>
-      <c r="C4" s="208" t="n">
+      <c r="C4" s="204" t="n">
         <v>0.3231</v>
       </c>
     </row>
@@ -8261,7 +8597,7 @@
           <t>300价值</t>
         </is>
       </c>
-      <c r="C5" s="209" t="n">
+      <c r="C5" s="274" t="n">
         <v>0.2179</v>
       </c>
     </row>
@@ -8274,7 +8610,7 @@
           <t>基本面60</t>
         </is>
       </c>
-      <c r="C6" s="210" t="n">
+      <c r="C6" s="275" t="n">
         <v>0.4291</v>
       </c>
     </row>
@@ -8287,7 +8623,7 @@
           <t>基本面120</t>
         </is>
       </c>
-      <c r="C7" s="211" t="n">
+      <c r="C7" s="14" t="n">
         <v>0.3837</v>
       </c>
     </row>
@@ -8300,7 +8636,7 @@
           <t>中小板</t>
         </is>
       </c>
-      <c r="C8" s="212" t="n">
+      <c r="C8" s="276" t="n">
         <v>0.3376</v>
       </c>
     </row>
@@ -8313,7 +8649,7 @@
           <t>中证500</t>
         </is>
       </c>
-      <c r="C9" s="213" t="n">
+      <c r="C9" s="165" t="n">
         <v>0.199</v>
       </c>
     </row>
@@ -8326,7 +8662,7 @@
           <t>中证1000</t>
         </is>
       </c>
-      <c r="C10" s="97" t="n">
+      <c r="C10" s="243" t="n">
         <v>0.2036</v>
       </c>
     </row>
@@ -8339,7 +8675,7 @@
           <t>创业板</t>
         </is>
       </c>
-      <c r="C11" s="214" t="n">
+      <c r="C11" s="49" t="n">
         <v>0.3718</v>
       </c>
     </row>
@@ -8352,7 +8688,7 @@
           <t>中证红利</t>
         </is>
       </c>
-      <c r="C12" s="37" t="n">
+      <c r="C12" s="254" t="n">
         <v>0.1157</v>
       </c>
     </row>
@@ -8365,7 +8701,7 @@
           <t>养老产业</t>
         </is>
       </c>
-      <c r="C13" s="215" t="n">
+      <c r="C13" s="277" t="n">
         <v>0.1855</v>
       </c>
     </row>
@@ -8378,7 +8714,7 @@
           <t>全指医药</t>
         </is>
       </c>
-      <c r="C14" s="47" t="n">
+      <c r="C14" s="278" t="n">
         <v>0.3801</v>
       </c>
     </row>
@@ -8391,7 +8727,7 @@
           <t>中证环保</t>
         </is>
       </c>
-      <c r="C15" s="216" t="n">
+      <c r="C15" s="129" t="n">
         <v>0.1034</v>
       </c>
     </row>
@@ -8404,7 +8740,7 @@
           <t>中证传媒</t>
         </is>
       </c>
-      <c r="C16" s="217" t="n">
+      <c r="C16" s="107" t="n">
         <v>0.1345</v>
       </c>
     </row>
@@ -8417,7 +8753,7 @@
           <t>证券公司</t>
         </is>
       </c>
-      <c r="C17" s="218" t="n">
+      <c r="C17" s="279" t="n">
         <v>0.307</v>
       </c>
     </row>
@@ -8430,7 +8766,7 @@
           <t>金融地产</t>
         </is>
       </c>
-      <c r="C18" s="219" t="n">
+      <c r="C18" s="280" t="n">
         <v>0.2761</v>
       </c>
     </row>
@@ -8456,7 +8792,7 @@
           <t>恒生</t>
         </is>
       </c>
-      <c r="C20" s="220" t="n">
+      <c r="C20" s="28" t="n">
         <v>0.07829999999999999</v>
       </c>
     </row>
@@ -8469,7 +8805,7 @@
           <t>台湾加权</t>
         </is>
       </c>
-      <c r="C21" s="221" t="n">
+      <c r="C21" s="244" t="n">
         <v>0.1919</v>
       </c>
     </row>
@@ -8482,7 +8818,7 @@
           <t>日经225</t>
         </is>
       </c>
-      <c r="C22" s="222" t="n">
+      <c r="C22" s="277" t="n">
         <v>0.1855</v>
       </c>
     </row>
@@ -8495,7 +8831,7 @@
           <t>德国30</t>
         </is>
       </c>
-      <c r="C23" s="223" t="n">
+      <c r="C23" s="281" t="n">
         <v>0.267</v>
       </c>
     </row>
@@ -8508,7 +8844,7 @@
           <t>富时100</t>
         </is>
       </c>
-      <c r="C24" s="44" t="n">
+      <c r="C24" s="254" t="n">
         <v>0.1136</v>
       </c>
     </row>
@@ -8521,7 +8857,7 @@
           <t>法国40</t>
         </is>
       </c>
-      <c r="C25" s="224" t="n">
+      <c r="C25" s="70" t="n">
         <v>0.2658</v>
       </c>
     </row>
@@ -8534,7 +8870,7 @@
           <t>道琼斯</t>
         </is>
       </c>
-      <c r="C26" s="225" t="n">
+      <c r="C26" s="253" t="n">
         <v>0.1947</v>
       </c>
     </row>
@@ -8547,7 +8883,7 @@
           <t>纳斯达克</t>
         </is>
       </c>
-      <c r="C27" s="156" t="n">
+      <c r="C27" s="98" t="n">
         <v>0.2926</v>
       </c>
     </row>
@@ -8560,7 +8896,7 @@
           <t>标普500</t>
         </is>
       </c>
-      <c r="C28" s="101" t="n">
+      <c r="C28" s="25" t="n">
         <v>0.2468</v>
       </c>
     </row>
@@ -8573,7 +8909,7 @@
           <t>可转债</t>
         </is>
       </c>
-      <c r="C29" s="155" t="n">
+      <c r="C29" s="282" t="n">
         <v>0.2017</v>
       </c>
     </row>
@@ -8586,7 +8922,7 @@
           <t>黄金</t>
         </is>
       </c>
-      <c r="C30" s="149" t="n">
+      <c r="C30" s="283" t="n">
         <v>0.1549</v>
       </c>
     </row>
@@ -8599,7 +8935,7 @@
           <t>原油</t>
         </is>
       </c>
-      <c r="C31" s="226" t="n">
+      <c r="C31" s="52" t="n">
         <v>0.2465</v>
       </c>
     </row>
@@ -8612,7 +8948,7 @@
           <t>白银</t>
         </is>
       </c>
-      <c r="C32" s="227" t="n">
+      <c r="C32" s="18" t="n">
         <v>0.1257</v>
       </c>
     </row>
@@ -8674,7 +9010,7 @@
           <t>台湾加权</t>
         </is>
       </c>
-      <c r="C3" s="21" t="n">
+      <c r="C3" s="23" t="n">
         <v>0.7812</v>
       </c>
     </row>
@@ -8687,7 +9023,7 @@
           <t>日经225</t>
         </is>
       </c>
-      <c r="C4" s="22" t="n">
+      <c r="C4" s="24" t="n">
         <v>0.0257</v>
       </c>
     </row>
@@ -8700,7 +9036,7 @@
           <t>德国30</t>
         </is>
       </c>
-      <c r="C5" s="23" t="n">
+      <c r="C5" s="25" t="n">
         <v>0.4663</v>
       </c>
     </row>
@@ -8713,7 +9049,7 @@
           <t>富时100</t>
         </is>
       </c>
-      <c r="C6" s="24" t="n">
+      <c r="C6" s="26" t="n">
         <v>0.2009</v>
       </c>
     </row>
@@ -8726,7 +9062,7 @@
           <t>法国40</t>
         </is>
       </c>
-      <c r="C7" s="25" t="n">
+      <c r="C7" s="18" t="n">
         <v>0.2364</v>
       </c>
     </row>
@@ -8739,7 +9075,7 @@
           <t>道琼斯</t>
         </is>
       </c>
-      <c r="C8" s="26" t="n">
+      <c r="C8" s="27" t="n">
         <v>0.1374</v>
       </c>
     </row>
@@ -8752,7 +9088,7 @@
           <t>纳斯达克</t>
         </is>
       </c>
-      <c r="C9" s="27" t="n">
+      <c r="C9" s="28" t="n">
         <v>0.1478</v>
       </c>
     </row>
@@ -8765,7 +9101,7 @@
           <t>标普500</t>
         </is>
       </c>
-      <c r="C10" s="28" t="n">
+      <c r="C10" s="29" t="n">
         <v>0.0708</v>
       </c>
     </row>
@@ -8778,7 +9114,7 @@
           <t>原油</t>
         </is>
       </c>
-      <c r="C11" s="6" t="n">
+      <c r="C11" s="4" t="n">
         <v>-0.2718</v>
       </c>
     </row>
@@ -8827,7 +9163,7 @@
           <t>恒生</t>
         </is>
       </c>
-      <c r="C2" s="29" t="n">
+      <c r="C2" s="4" t="n">
         <v>-0.3108</v>
       </c>
     </row>
@@ -8840,7 +9176,7 @@
           <t>台湾加权</t>
         </is>
       </c>
-      <c r="C3" s="30" t="n">
+      <c r="C3" s="14" t="n">
         <v>0.1619</v>
       </c>
     </row>
@@ -8853,7 +9189,7 @@
           <t>日经225</t>
         </is>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="30" t="n">
         <v>0.1321</v>
       </c>
     </row>
@@ -8931,7 +9267,7 @@
           <t>标普500</t>
         </is>
       </c>
-      <c r="C10" s="6" t="n">
+      <c r="C10" s="36" t="n">
         <v>-0.0155</v>
       </c>
     </row>
@@ -8993,7 +9329,7 @@
           <t>恒生</t>
         </is>
       </c>
-      <c r="C2" s="36" t="n">
+      <c r="C2" s="37" t="n">
         <v>0.2299</v>
       </c>
     </row>
@@ -9006,7 +9342,7 @@
           <t>台湾加权</t>
         </is>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="4" t="n">
         <v>-0.2765</v>
       </c>
     </row>
@@ -9019,7 +9355,7 @@
           <t>日经225</t>
         </is>
       </c>
-      <c r="C4" s="37" t="n">
+      <c r="C4" s="38" t="n">
         <v>0.0073</v>
       </c>
     </row>
@@ -9032,7 +9368,7 @@
           <t>德国30</t>
         </is>
       </c>
-      <c r="C5" s="34" t="n">
+      <c r="C5" s="39" t="n">
         <v>0.0809</v>
       </c>
     </row>
@@ -9045,7 +9381,7 @@
           <t>富时100</t>
         </is>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="40" t="n">
         <v>0.2035</v>
       </c>
     </row>
@@ -9071,7 +9407,7 @@
           <t>道琼斯</t>
         </is>
       </c>
-      <c r="C8" s="30" t="n">
+      <c r="C8" s="41" t="n">
         <v>0.3346</v>
       </c>
     </row>
@@ -9097,7 +9433,7 @@
           <t>标普500</t>
         </is>
       </c>
-      <c r="C10" s="38" t="n">
+      <c r="C10" s="42" t="n">
         <v>0.3411</v>
       </c>
     </row>
@@ -9110,7 +9446,7 @@
           <t>原油</t>
         </is>
       </c>
-      <c r="C11" s="39" t="n">
+      <c r="C11" s="43" t="n">
         <v>0.0989</v>
       </c>
     </row>
@@ -9172,7 +9508,7 @@
           <t>台湾加权</t>
         </is>
       </c>
-      <c r="C3" s="21" t="n">
+      <c r="C3" s="44" t="n">
         <v>0.3333</v>
       </c>
     </row>
@@ -9185,7 +9521,7 @@
           <t>日经225</t>
         </is>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="4" t="n">
         <v>-0.0293</v>
       </c>
     </row>
@@ -9198,7 +9534,7 @@
           <t>德国30</t>
         </is>
       </c>
-      <c r="C5" s="25" t="n">
+      <c r="C5" s="45" t="n">
         <v>0.2744</v>
       </c>
     </row>
@@ -9211,7 +9547,7 @@
           <t>富时100</t>
         </is>
       </c>
-      <c r="C6" s="22" t="n">
+      <c r="C6" s="46" t="n">
         <v>0.1163</v>
       </c>
     </row>
@@ -9224,7 +9560,7 @@
           <t>法国40</t>
         </is>
       </c>
-      <c r="C7" s="27" t="n">
+      <c r="C7" s="47" t="n">
         <v>0.2361</v>
       </c>
     </row>
@@ -9237,7 +9573,7 @@
           <t>道琼斯</t>
         </is>
       </c>
-      <c r="C8" s="24" t="n">
+      <c r="C8" s="48" t="n">
         <v>0.2601</v>
       </c>
     </row>
@@ -9250,7 +9586,7 @@
           <t>纳斯达克</t>
         </is>
       </c>
-      <c r="C9" s="26" t="n">
+      <c r="C9" s="23" t="n">
         <v>0.2262</v>
       </c>
     </row>
@@ -9263,7 +9599,7 @@
           <t>标普500</t>
         </is>
       </c>
-      <c r="C10" s="28" t="n">
+      <c r="C10" s="49" t="n">
         <v>0.2026</v>
       </c>
     </row>
@@ -9276,7 +9612,7 @@
           <t>原油</t>
         </is>
       </c>
-      <c r="C11" s="23" t="n">
+      <c r="C11" s="50" t="n">
         <v>0.3279</v>
       </c>
     </row>
@@ -9325,7 +9661,7 @@
           <t>恒生</t>
         </is>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="51" t="n">
         <v>-0.1975</v>
       </c>
     </row>
@@ -9338,7 +9674,7 @@
           <t>台湾加权</t>
         </is>
       </c>
-      <c r="C3" s="20" t="n">
+      <c r="C3" s="52" t="n">
         <v>0.1954</v>
       </c>
     </row>
@@ -9351,7 +9687,7 @@
           <t>日经225</t>
         </is>
       </c>
-      <c r="C4" s="9" t="n">
+      <c r="C4" s="53" t="n">
         <v>-0.212</v>
       </c>
     </row>
@@ -9377,7 +9713,7 @@
           <t>富时100</t>
         </is>
       </c>
-      <c r="C6" s="15" t="n">
+      <c r="C6" s="54" t="n">
         <v>0.2469</v>
       </c>
     </row>
@@ -9390,7 +9726,7 @@
           <t>法国40</t>
         </is>
       </c>
-      <c r="C7" s="16" t="n">
+      <c r="C7" s="55" t="n">
         <v>0.3006</v>
       </c>
     </row>
@@ -9403,7 +9739,7 @@
           <t>道琼斯</t>
         </is>
       </c>
-      <c r="C8" s="19" t="n">
+      <c r="C8" s="56" t="n">
         <v>0.2252</v>
       </c>
     </row>
@@ -9416,7 +9752,7 @@
           <t>纳斯达克</t>
         </is>
       </c>
-      <c r="C9" s="17" t="n">
+      <c r="C9" s="57" t="n">
         <v>0.2148</v>
       </c>
     </row>
@@ -9429,7 +9765,7 @@
           <t>标普500</t>
         </is>
       </c>
-      <c r="C10" s="18" t="n">
+      <c r="C10" s="58" t="n">
         <v>0.3101</v>
       </c>
     </row>
@@ -9442,7 +9778,7 @@
           <t>原油</t>
         </is>
       </c>
-      <c r="C11" s="14" t="n">
+      <c r="C11" s="4" t="n">
         <v>-0.3184</v>
       </c>
     </row>
@@ -9491,7 +9827,7 @@
           <t>恒生</t>
         </is>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="59" t="n">
         <v>-0.06469999999999999</v>
       </c>
     </row>
@@ -9504,7 +9840,7 @@
           <t>台湾加权</t>
         </is>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="60" t="n">
         <v>-0.2129</v>
       </c>
     </row>
@@ -9517,7 +9853,7 @@
           <t>日经225</t>
         </is>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="61" t="n">
         <v>-0.0934</v>
       </c>
     </row>
@@ -9530,7 +9866,7 @@
           <t>德国30</t>
         </is>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="57" t="n">
         <v>0.1723</v>
       </c>
     </row>
@@ -9543,7 +9879,7 @@
           <t>富时100</t>
         </is>
       </c>
-      <c r="C6" s="40" t="n">
+      <c r="C6" s="62" t="n">
         <v>0.1455</v>
       </c>
     </row>
@@ -9556,7 +9892,7 @@
           <t>法国40</t>
         </is>
       </c>
-      <c r="C7" s="41" t="n">
+      <c r="C7" s="63" t="n">
         <v>0.309</v>
       </c>
     </row>
@@ -9569,7 +9905,7 @@
           <t>道琼斯</t>
         </is>
       </c>
-      <c r="C8" s="42" t="n">
+      <c r="C8" s="64" t="n">
         <v>0.1607</v>
       </c>
     </row>
@@ -9595,7 +9931,7 @@
           <t>标普500</t>
         </is>
       </c>
-      <c r="C10" s="43" t="n">
+      <c r="C10" s="65" t="n">
         <v>0.2667</v>
       </c>
     </row>
